--- a/barcode/intermediate_result.xlsx
+++ b/barcode/intermediate_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="252">
   <si>
     <t>Артикул</t>
   </si>
@@ -28,159 +28,360 @@
     <t>место</t>
   </si>
   <si>
-    <t>Футболка Единорог р116</t>
-  </si>
-  <si>
-    <t>Термонаклейка Король Лев сердце хвосты</t>
-  </si>
-  <si>
-    <t>Футболка Соник Ежик Sonic р128</t>
-  </si>
-  <si>
-    <t>Термонаклейка Dior Диор Цветы</t>
-  </si>
-  <si>
-    <t>Футболка Единорог р134</t>
-  </si>
-  <si>
-    <t>Футболка Соник Ежик Sonic р104</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме Девочка с черным капюшоном</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме девочка в куртке со стикерами</t>
-  </si>
-  <si>
-    <t>Термонаклейка Микки Маус мультфильмы внутри</t>
-  </si>
-  <si>
-    <t>Термонаклейка Поцелуй берега и реки картина маслом</t>
-  </si>
-  <si>
-    <t>Термонаклейка Рыба паттерн яркая красивая</t>
-  </si>
-  <si>
-    <t>Термонаклейка Dolce Gabbana Дольче Габбана лимоны</t>
-  </si>
-  <si>
-    <t>Термонаклейка Play Boy губы обложка губы марка</t>
-  </si>
-  <si>
-    <t>Термонаклейка Vogue Вог Эйфелева башня</t>
-  </si>
-  <si>
-    <t>Термонаклейка Бокал красного вина сердце</t>
-  </si>
-  <si>
-    <t>Термонаклейка Ежик праздник</t>
-  </si>
-  <si>
-    <t>Термонаклейка Леопард розовый крупный план</t>
-  </si>
-  <si>
-    <t>Термонаклейка Микки Маус надпись Дисней</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка очки с краской розовой</t>
-  </si>
-  <si>
-    <t>Термобирки Котята</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кот картина Ван Гог</t>
-  </si>
-  <si>
-    <t>Термонаклейка Шенячий Патруль и Логотип</t>
-  </si>
-  <si>
-    <t>Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
-  </si>
-  <si>
-    <t>Термонаклейка Леопардовое сердце поцелуй губ</t>
-  </si>
-  <si>
-    <t>Термонаклейка Шенячий Патруль мальчик главный</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка Блондинка с котом на голове</t>
-  </si>
-  <si>
-    <t>Термонаклейка Ежик Соник бежит из кольца</t>
-  </si>
-  <si>
-    <t>Термонаклейка Минни Маус сидит сердечки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Одри Хепбёрн поп арт</t>
-  </si>
-  <si>
-    <t>Термонаклейка надпись love любовь</t>
-  </si>
-  <si>
-    <t>Футболка Единорог р122</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сейлор Мун в куртке Sailor Moon</t>
-  </si>
-  <si>
-    <t>Термонаклейка Микки Маус надписи на фоне</t>
-  </si>
-  <si>
-    <t>Термонаклейка Принцессы дисней</t>
-  </si>
-  <si>
-    <t>Термонаклейка Dior Диор Девушка курит облако</t>
-  </si>
-  <si>
-    <t>Термонаклейка Минни Маус и Дейзи утка</t>
-  </si>
-  <si>
-    <t>Термонаклейка картина Девушка с сережкой Билли</t>
-  </si>
-  <si>
-    <t>Футболка Единорог р110</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме девочка с мечом розовые волосы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Шенячий Патруль полицеский</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мэрилин Монро Supreme Суприм глаза</t>
-  </si>
-  <si>
-    <t>Футболка Единорог р128</t>
-  </si>
-  <si>
-    <t>Термонаклейка Солнце Цветок в ретро</t>
-  </si>
-  <si>
-    <t>Футболка Единорог р98</t>
-  </si>
-  <si>
-    <t>Термонаклейка Красные перцы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Бюст статуи Feelings скрыты глаза</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Черный Силуэт Девушки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мона Лиза, Фрида Кало, коктели</t>
-  </si>
-  <si>
-    <t>Термонаклейка Поцелуй в космосе картина маслом</t>
+    <t>Термонаклейка Девушка Венок Луна Акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Радужный котенок счастливый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Дейзи и Минни Маус коктейль</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый Кот в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лило и Стич сидят</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро фото буквы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Большая волна в Канагаве</t>
+  </si>
+  <si>
+    <t>Термонаклейка Черный Кот Силует астрономия</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка и Лиса</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Силует Закат</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка и 2 ласточки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Динозавр в очках играет на гитаре</t>
+  </si>
+  <si>
+    <t>Термонаклейка Дисней утка Дейзи и Минни пис</t>
+  </si>
+  <si>
+    <t>Термонаклейка Единороги голубой и розовый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит прягает из воды закат</t>
+  </si>
+  <si>
+    <t>Термонаклейка Котенок розовый закат звезды</t>
+  </si>
+  <si>
+    <t>Термонаклейка Солнце Луна Звезды Астрология</t>
+  </si>
+  <si>
+    <t>Термонаклейка Фламинго Flamingo цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка львенок с милой улыбкой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Пионы розовый Peonies</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лотос розовый золотистый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Силует Акварель Лес</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка на закате держат руки море</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка с колибри роза кольцо</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка холст растут цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Крылья красочные маслом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Леопард пятна сердечки голова</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце отпечаток пальца красный</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Желтый Мак</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный кот Catzilla Годзилла луч</t>
+  </si>
+  <si>
+    <t>Термонаклейка Египетская кошка в золоте</t>
+  </si>
+  <si>
+    <t>Термонаклейки Nike Найк набор</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Соник Sonic</t>
+  </si>
+  <si>
+    <t>Термонаклейка Перья Яркие Wild Spirit</t>
+  </si>
+  <si>
+    <t>Термонаклейка Губы Язык Краски Дизайн</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка с галактической магией</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит моряк волны лодка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кот цветы внутри</t>
+  </si>
+  <si>
+    <t>Термонаклейка Минни Маус поправляет бант</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мопс Собачка попа секси</t>
+  </si>
+  <si>
+    <t>Термонаклейка Пантера рычит звезды розовый фон</t>
+  </si>
+  <si>
+    <t>Термонаклейка Секс в большом городе подруги</t>
+  </si>
+  <si>
+    <t>Термонаклейка Спанч Боб и друзья</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный волк красный луна</t>
+  </si>
+  <si>
+    <t>Термонаклейка львенок выглядывает игриво</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит в золотом дизайне космос</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Пионы надпись</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка в розовом платье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Ловец снов акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Маленький принц на синем ките</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
+  </si>
+  <si>
+    <t>Термонаклейка Перья Украшение Ожерелье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Подсолнухи Цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Море Силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Мак фиолетовый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чайка силует море внутри</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный котенок в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Черепашки ниндзя turtles TMNT</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Синии Амариллис</t>
+  </si>
+  <si>
+    <t>Термонаклейка Самурай в маске воина</t>
+  </si>
+  <si>
+    <t>Термонаклейка Бабочка зеленная листья</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Синий Акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Аист оранжевый круг</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка Ангел с хвостами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Розовые Spring Blossoms</t>
+  </si>
+  <si>
+    <t>Термонаклейка Человек Паук Лого позади</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Природа Силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка силует туман лес птицы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит в голубых и розовых оттенках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Микки Маус бабочки цверы силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Морская Черепаха Море силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро Поп арт жвачка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Бабочки летят</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Букет Цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Ирисы акварелью Синий</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Колибри 2шт</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит в Цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Улыбающийся лисенок в снегу</t>
+  </si>
+  <si>
+    <t>Термонаклейка Пантера силует внутри цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кратос God of War с цитатой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Морская Ракушка Силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Радужный мишка с улыбкой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Бабочки 4шт небо внутри</t>
+  </si>
+  <si>
+    <t>Термонаклейка Покемоны Пикачу и Эш Кетчум</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Волосы Бабочки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Орхидея Цветы Розовые</t>
+  </si>
+  <si>
+    <t>Термонаклейка Весёлый енот выглядывает</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кассета цветы Vintage Soul</t>
+  </si>
+  <si>
+    <t>Термонаклейка Одри Хепбёрн холст Vogue</t>
+  </si>
+  <si>
+    <t>Термонаклейка Пара леопардов в ночной листве</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Магнолия белые Botanical</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кошка розово-фиолетовая крупный план</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белая Лошадь Цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Попугаи 2шт зеленый и желтый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Берсерк воин в аниме стиле</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый волк с цветами и узорами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лес Гитара Закат</t>
+  </si>
+  <si>
+    <t>Термонаклейка арбуз с сердцем и надписью</t>
+  </si>
+  <si>
+    <t>Термонаклейка Человек Паук круг надпись снизу</t>
+  </si>
+  <si>
+    <t>Термонаклейка Яхта у белых домиков море</t>
+  </si>
+  <si>
+    <t>Термонаклейка Инь Янь Леопарды</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит хвост из волн море океан</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро буквы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сова в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Ёжики в кружках с сердечками</t>
+  </si>
+  <si>
+    <t>Термонаклейка Синий лев с золотыми акцентами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Шредер и Кренг из Черепашек-ниндзя</t>
+  </si>
+  <si>
+    <t>Термонаклейка Винни Пух и друзья на шаре</t>
+  </si>
+  <si>
+    <t>Термонаклейка Яркий аниме белый дракон с огнём</t>
+  </si>
+  <si>
+    <t>Термонаклейка Аниме девочка белые волосы уши кошки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро геометрия</t>
   </si>
   <si>
     <t>Беларусь</t>
   </si>
   <si>
-    <t>Воронеж</t>
-  </si>
-  <si>
     <t>Дальний Восток</t>
   </si>
   <si>
@@ -211,9 +412,6 @@
     <t>Сибирь</t>
   </si>
   <si>
-    <t>Тюмень</t>
-  </si>
-  <si>
     <t>Урал</t>
   </si>
   <si>
@@ -223,130 +421,355 @@
     <t>Юг</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>м68</t>
-  </si>
-  <si>
-    <t>а10</t>
-  </si>
-  <si>
-    <t>а9</t>
-  </si>
-  <si>
-    <t>а46</t>
-  </si>
-  <si>
-    <t>м30</t>
-  </si>
-  <si>
-    <t>а34</t>
-  </si>
-  <si>
-    <t>а38</t>
-  </si>
-  <si>
-    <t>а11</t>
-  </si>
-  <si>
-    <t>а31</t>
-  </si>
-  <si>
-    <t>а39</t>
-  </si>
-  <si>
-    <t>а50</t>
-  </si>
-  <si>
-    <t>м11</t>
-  </si>
-  <si>
-    <t>а12</t>
-  </si>
-  <si>
-    <t>м52</t>
-  </si>
-  <si>
-    <t>а7</t>
-  </si>
-  <si>
-    <t>г14</t>
-  </si>
-  <si>
-    <t>а16</t>
-  </si>
-  <si>
-    <t>м8</t>
-  </si>
-  <si>
-    <t>а2</t>
-  </si>
-  <si>
-    <t>а8</t>
-  </si>
-  <si>
-    <t>м64</t>
-  </si>
-  <si>
-    <t>а32</t>
-  </si>
-  <si>
-    <t>м7</t>
-  </si>
-  <si>
-    <t>м81</t>
-  </si>
-  <si>
-    <t>а23</t>
-  </si>
-  <si>
-    <t>а52</t>
-  </si>
-  <si>
-    <t>а18</t>
-  </si>
-  <si>
-    <t>а28</t>
-  </si>
-  <si>
-    <t>м55</t>
-  </si>
-  <si>
-    <t>а43</t>
-  </si>
-  <si>
-    <t>м21</t>
-  </si>
-  <si>
-    <t>а48</t>
-  </si>
-  <si>
-    <t>а45</t>
-  </si>
-  <si>
-    <t>м56</t>
-  </si>
-  <si>
-    <t>а14</t>
-  </si>
-  <si>
-    <t>а37</t>
-  </si>
-  <si>
-    <t>а21</t>
-  </si>
-  <si>
-    <t>а35</t>
-  </si>
-  <si>
-    <t>а19</t>
-  </si>
-  <si>
-    <t>а13</t>
-  </si>
-  <si>
-    <t>а5</t>
+    <t>т24</t>
+  </si>
+  <si>
+    <t>д18</t>
+  </si>
+  <si>
+    <t>б93</t>
+  </si>
+  <si>
+    <t>т39</t>
+  </si>
+  <si>
+    <t>б9</t>
+  </si>
+  <si>
+    <t>т70</t>
+  </si>
+  <si>
+    <t>у28</t>
+  </si>
+  <si>
+    <t>т12</t>
+  </si>
+  <si>
+    <t>т22</t>
+  </si>
+  <si>
+    <t>т36</t>
+  </si>
+  <si>
+    <t>т28</t>
+  </si>
+  <si>
+    <t>б55</t>
+  </si>
+  <si>
+    <t>б27</t>
+  </si>
+  <si>
+    <t>б2</t>
+  </si>
+  <si>
+    <t>у21</t>
+  </si>
+  <si>
+    <t>т47</t>
+  </si>
+  <si>
+    <t>у48</t>
+  </si>
+  <si>
+    <t>т55</t>
+  </si>
+  <si>
+    <t>д11</t>
+  </si>
+  <si>
+    <t>у17</t>
+  </si>
+  <si>
+    <t>т19</t>
+  </si>
+  <si>
+    <t>т31</t>
+  </si>
+  <si>
+    <t>т13</t>
+  </si>
+  <si>
+    <t>у25</t>
+  </si>
+  <si>
+    <t>у43</t>
+  </si>
+  <si>
+    <t>у34</t>
+  </si>
+  <si>
+    <t>у33</t>
+  </si>
+  <si>
+    <t>т69</t>
+  </si>
+  <si>
+    <t>у10</t>
+  </si>
+  <si>
+    <t>в3</t>
+  </si>
+  <si>
+    <t>в89</t>
+  </si>
+  <si>
+    <t>в59</t>
+  </si>
+  <si>
+    <t>у22</t>
+  </si>
+  <si>
+    <t>е4</t>
+  </si>
+  <si>
+    <t>у26</t>
+  </si>
+  <si>
+    <t>т68</t>
+  </si>
+  <si>
+    <t>в8</t>
+  </si>
+  <si>
+    <t>у36</t>
+  </si>
+  <si>
+    <t>т26</t>
+  </si>
+  <si>
+    <t>б42</t>
+  </si>
+  <si>
+    <t>т71</t>
+  </si>
+  <si>
+    <t>т65</t>
+  </si>
+  <si>
+    <t>т59</t>
+  </si>
+  <si>
+    <t>б11</t>
+  </si>
+  <si>
+    <t>в25</t>
+  </si>
+  <si>
+    <t>д12</t>
+  </si>
+  <si>
+    <t>в22</t>
+  </si>
+  <si>
+    <t>у1</t>
+  </si>
+  <si>
+    <t>е3</t>
+  </si>
+  <si>
+    <t>д7</t>
+  </si>
+  <si>
+    <t>в7</t>
+  </si>
+  <si>
+    <t>в23</t>
+  </si>
+  <si>
+    <t>у49</t>
+  </si>
+  <si>
+    <t>у15</t>
+  </si>
+  <si>
+    <t>т21</t>
+  </si>
+  <si>
+    <t>т34</t>
+  </si>
+  <si>
+    <t>у14</t>
+  </si>
+  <si>
+    <t>у31</t>
+  </si>
+  <si>
+    <t>д3</t>
+  </si>
+  <si>
+    <t>е2</t>
+  </si>
+  <si>
+    <t>е1</t>
+  </si>
+  <si>
+    <t>у3</t>
+  </si>
+  <si>
+    <t>у12</t>
+  </si>
+  <si>
+    <t>в80</t>
+  </si>
+  <si>
+    <t>т30</t>
+  </si>
+  <si>
+    <t>т23</t>
+  </si>
+  <si>
+    <t>у5</t>
+  </si>
+  <si>
+    <t>д9</t>
+  </si>
+  <si>
+    <t>у24</t>
+  </si>
+  <si>
+    <t>б5</t>
+  </si>
+  <si>
+    <t>т43</t>
+  </si>
+  <si>
+    <t>у2</t>
+  </si>
+  <si>
+    <t>в21</t>
+  </si>
+  <si>
+    <t>у39</t>
+  </si>
+  <si>
+    <t>у41</t>
+  </si>
+  <si>
+    <t>у13</t>
+  </si>
+  <si>
+    <t>т1</t>
+  </si>
+  <si>
+    <t>т32</t>
+  </si>
+  <si>
+    <t>у4</t>
+  </si>
+  <si>
+    <t>у6</t>
+  </si>
+  <si>
+    <t>т42</t>
+  </si>
+  <si>
+    <t>д19</t>
+  </si>
+  <si>
+    <t>у27</t>
+  </si>
+  <si>
+    <t>в67</t>
+  </si>
+  <si>
+    <t>в12</t>
+  </si>
+  <si>
+    <t>т20</t>
+  </si>
+  <si>
+    <t>д17</t>
+  </si>
+  <si>
+    <t>у38</t>
+  </si>
+  <si>
+    <t>б45</t>
+  </si>
+  <si>
+    <t>т35</t>
+  </si>
+  <si>
+    <t>т41</t>
+  </si>
+  <si>
+    <t>д4</t>
+  </si>
+  <si>
+    <t>т49</t>
+  </si>
+  <si>
+    <t>у18</t>
+  </si>
+  <si>
+    <t>в13</t>
+  </si>
+  <si>
+    <t>у20</t>
+  </si>
+  <si>
+    <t>в5</t>
+  </si>
+  <si>
+    <t>т40</t>
+  </si>
+  <si>
+    <t>т5</t>
+  </si>
+  <si>
+    <t>в77</t>
+  </si>
+  <si>
+    <t>в24</t>
+  </si>
+  <si>
+    <t>у44</t>
+  </si>
+  <si>
+    <t>д13</t>
+  </si>
+  <si>
+    <t>б25</t>
+  </si>
+  <si>
+    <t>в38</t>
+  </si>
+  <si>
+    <t>т15</t>
+  </si>
+  <si>
+    <t>у8</t>
+  </si>
+  <si>
+    <t>т60</t>
+  </si>
+  <si>
+    <t>т45</t>
+  </si>
+  <si>
+    <t>в16</t>
+  </si>
+  <si>
+    <t>д22</t>
+  </si>
+  <si>
+    <t>в15</t>
+  </si>
+  <si>
+    <t>в63</t>
+  </si>
+  <si>
+    <t>б44</t>
+  </si>
+  <si>
+    <t>в68</t>
+  </si>
+  <si>
+    <t>т54</t>
+  </si>
+  <si>
+    <t>т67</t>
   </si>
 </sst>
 </file>
@@ -704,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -743,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -757,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -771,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -785,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -799,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -813,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -827,13 +1250,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -841,13 +1264,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -855,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -869,937 +1292,937 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C35">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>76</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1807,825 +2230,2673 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C81">
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82">
         <v>4</v>
       </c>
-      <c r="B82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C91">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B102" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C106">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B118" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D121" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124">
         <v>14</v>
       </c>
-      <c r="B124" t="s">
-        <v>67</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
       <c r="D124" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B126" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B127" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B129" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C130">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B131" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D131" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B132" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B133" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B134" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B135" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B136" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>127</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>93</v>
+      </c>
+      <c r="B138" t="s">
+        <v>127</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>65</v>
+      </c>
+      <c r="B140" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>71</v>
+      </c>
+      <c r="B141" t="s">
+        <v>128</v>
+      </c>
+      <c r="C141">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>63</v>
+      </c>
+      <c r="B144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>95</v>
+      </c>
+      <c r="B145" t="s">
+        <v>128</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>96</v>
+      </c>
+      <c r="B146" t="s">
+        <v>128</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>97</v>
+      </c>
+      <c r="B148" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>98</v>
+      </c>
+      <c r="B149" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" t="s">
+        <v>128</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>83</v>
+      </c>
+      <c r="B151" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" t="s">
+        <v>128</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" t="s">
+        <v>129</v>
+      </c>
+      <c r="C153">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>129</v>
+      </c>
+      <c r="C154">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" t="s">
+        <v>129</v>
+      </c>
+      <c r="C155">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>78</v>
+      </c>
+      <c r="B157" t="s">
+        <v>129</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>53</v>
+      </c>
+      <c r="B158" t="s">
+        <v>129</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159" t="s">
+        <v>129</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>85</v>
+      </c>
+      <c r="B160" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" t="s">
+        <v>129</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>76</v>
+      </c>
+      <c r="B163" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164" t="s">
+        <v>129</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>102</v>
+      </c>
+      <c r="B165" t="s">
+        <v>129</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>22</v>
+      </c>
+      <c r="B166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B167" t="s">
+        <v>130</v>
+      </c>
+      <c r="C167">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>33</v>
+      </c>
+      <c r="B168" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>104</v>
+      </c>
+      <c r="B169" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>95</v>
+      </c>
+      <c r="B170" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171" t="s">
+        <v>130</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>130</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>41</v>
+      </c>
+      <c r="B173" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>105</v>
+      </c>
+      <c r="B174" t="s">
+        <v>130</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>56</v>
+      </c>
+      <c r="B175" t="s">
+        <v>130</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>81</v>
+      </c>
+      <c r="B176" t="s">
+        <v>130</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>83</v>
+      </c>
+      <c r="B177" t="s">
+        <v>130</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>106</v>
+      </c>
+      <c r="B178" t="s">
+        <v>130</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" t="s">
+        <v>130</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>73</v>
+      </c>
+      <c r="B180" t="s">
+        <v>131</v>
+      </c>
+      <c r="C180">
+        <v>32</v>
+      </c>
+      <c r="D180" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>107</v>
+      </c>
+      <c r="B181" t="s">
+        <v>131</v>
+      </c>
+      <c r="C181">
+        <v>18</v>
+      </c>
+      <c r="D181" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" t="s">
+        <v>131</v>
+      </c>
+      <c r="C182">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>108</v>
+      </c>
+      <c r="B183" t="s">
+        <v>131</v>
+      </c>
+      <c r="C183">
+        <v>14</v>
+      </c>
+      <c r="D183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>71</v>
+      </c>
+      <c r="B184" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>96</v>
+      </c>
+      <c r="B185" t="s">
+        <v>131</v>
+      </c>
+      <c r="C185">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>53</v>
+      </c>
+      <c r="B186" t="s">
+        <v>131</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>109</v>
+      </c>
+      <c r="B187" t="s">
+        <v>131</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>110</v>
+      </c>
+      <c r="B188" t="s">
+        <v>131</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>68</v>
+      </c>
+      <c r="B189" t="s">
+        <v>131</v>
+      </c>
+      <c r="C189">
+        <v>5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>77</v>
+      </c>
+      <c r="B190" t="s">
+        <v>131</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>131</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="s">
+        <v>131</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>81</v>
+      </c>
+      <c r="B193" t="s">
+        <v>131</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>36</v>
+      </c>
+      <c r="B194" t="s">
+        <v>131</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" t="s">
+        <v>131</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" t="s">
+        <v>131</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>84</v>
+      </c>
+      <c r="B197" t="s">
+        <v>131</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>111</v>
+      </c>
+      <c r="B198" t="s">
+        <v>131</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>105</v>
+      </c>
+      <c r="B199" t="s">
+        <v>131</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>88</v>
+      </c>
+      <c r="B200" t="s">
+        <v>131</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>112</v>
+      </c>
+      <c r="B201" t="s">
+        <v>131</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>86</v>
+      </c>
+      <c r="B202" t="s">
+        <v>131</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>102</v>
+      </c>
+      <c r="B203" t="s">
+        <v>131</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>113</v>
+      </c>
+      <c r="B204" t="s">
+        <v>131</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>69</v>
+      </c>
+      <c r="B205" t="s">
+        <v>131</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
         <v>52</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B206" t="s">
+        <v>132</v>
+      </c>
+      <c r="C206">
+        <v>20</v>
+      </c>
+      <c r="D206" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>65</v>
+      </c>
+      <c r="B207" t="s">
+        <v>132</v>
+      </c>
+      <c r="C207">
+        <v>12</v>
+      </c>
+      <c r="D207" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>99</v>
+      </c>
+      <c r="B208" t="s">
+        <v>132</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>71</v>
+      </c>
+      <c r="B209" t="s">
+        <v>132</v>
+      </c>
+      <c r="C209">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" t="s">
+        <v>132</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>74</v>
+      </c>
+      <c r="B211" t="s">
+        <v>132</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>16</v>
+      </c>
+      <c r="B212" t="s">
+        <v>132</v>
+      </c>
+      <c r="C212">
+        <v>4</v>
+      </c>
+      <c r="D212" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>89</v>
+      </c>
+      <c r="B213" t="s">
+        <v>132</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>114</v>
+      </c>
+      <c r="B214" t="s">
+        <v>132</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>26</v>
+      </c>
+      <c r="B215" t="s">
+        <v>132</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>109</v>
+      </c>
+      <c r="B216" t="s">
+        <v>132</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>50</v>
+      </c>
+      <c r="B217" t="s">
+        <v>132</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>105</v>
+      </c>
+      <c r="B218" t="s">
+        <v>132</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>102</v>
+      </c>
+      <c r="B219" t="s">
+        <v>132</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>132</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>115</v>
+      </c>
+      <c r="B221" t="s">
+        <v>132</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>63</v>
+      </c>
+      <c r="B222" t="s">
+        <v>132</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>82</v>
+      </c>
+      <c r="B223" t="s">
+        <v>133</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>116</v>
+      </c>
+      <c r="B224" t="s">
+        <v>133</v>
+      </c>
+      <c r="C224">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>70</v>
+      </c>
+      <c r="B225" t="s">
+        <v>133</v>
+      </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
+      <c r="D225" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>117</v>
+      </c>
+      <c r="B226" t="s">
+        <v>133</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="D226" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" t="s">
+        <v>133</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+      <c r="D227" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>29</v>
+      </c>
+      <c r="B228" t="s">
+        <v>133</v>
+      </c>
+      <c r="C228">
+        <v>4</v>
+      </c>
+      <c r="D228" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>30</v>
+      </c>
+      <c r="B229" t="s">
+        <v>133</v>
+      </c>
+      <c r="C229">
+        <v>4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>56</v>
+      </c>
+      <c r="B230" t="s">
+        <v>133</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" t="s">
+        <v>133</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+      <c r="D231" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>93</v>
+      </c>
+      <c r="B232" t="s">
+        <v>133</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" t="s">
+        <v>133</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" t="s">
+        <v>133</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>26</v>
+      </c>
+      <c r="B235" t="s">
+        <v>133</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" t="s">
+        <v>133</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>109</v>
+      </c>
+      <c r="B237" t="s">
+        <v>133</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>105</v>
+      </c>
+      <c r="B238" t="s">
+        <v>133</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>46</v>
+      </c>
+      <c r="B239" t="s">
+        <v>133</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>83</v>
+      </c>
+      <c r="B240" t="s">
+        <v>133</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" t="s">
+        <v>133</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>51</v>
+      </c>
+      <c r="B242" t="s">
+        <v>134</v>
+      </c>
+      <c r="C242">
+        <v>78</v>
+      </c>
+      <c r="D242" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>65</v>
+      </c>
+      <c r="B243" t="s">
+        <v>134</v>
+      </c>
+      <c r="C243">
+        <v>44</v>
+      </c>
+      <c r="D243" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>71</v>
+      </c>
+      <c r="B244" t="s">
+        <v>134</v>
+      </c>
+      <c r="C244">
+        <v>14</v>
+      </c>
+      <c r="D244" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>64</v>
+      </c>
+      <c r="B245" t="s">
+        <v>134</v>
+      </c>
+      <c r="C245">
+        <v>12</v>
+      </c>
+      <c r="D245" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>79</v>
+      </c>
+      <c r="B246" t="s">
+        <v>134</v>
+      </c>
+      <c r="C246">
+        <v>10</v>
+      </c>
+      <c r="D246" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>110</v>
+      </c>
+      <c r="B247" t="s">
+        <v>134</v>
+      </c>
+      <c r="C247">
+        <v>10</v>
+      </c>
+      <c r="D247" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248" t="s">
+        <v>134</v>
+      </c>
+      <c r="C248">
+        <v>9</v>
+      </c>
+      <c r="D248" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249" t="s">
+        <v>134</v>
+      </c>
+      <c r="C249">
+        <v>8</v>
+      </c>
+      <c r="D249" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>80</v>
+      </c>
+      <c r="B250" t="s">
+        <v>134</v>
+      </c>
+      <c r="C250">
+        <v>8</v>
+      </c>
+      <c r="D250" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>33</v>
+      </c>
+      <c r="B251" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>101</v>
+      </c>
+      <c r="B252" t="s">
+        <v>134</v>
+      </c>
+      <c r="C252">
+        <v>7</v>
+      </c>
+      <c r="D252" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>118</v>
+      </c>
+      <c r="B253" t="s">
+        <v>134</v>
+      </c>
+      <c r="C253">
+        <v>7</v>
+      </c>
+      <c r="D253" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>36</v>
+      </c>
+      <c r="B254" t="s">
+        <v>134</v>
+      </c>
+      <c r="C254">
+        <v>7</v>
+      </c>
+      <c r="D254" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>72</v>
+      </c>
+      <c r="B255" t="s">
+        <v>134</v>
+      </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
+      <c r="D255" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>48</v>
+      </c>
+      <c r="B256" t="s">
+        <v>134</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+      <c r="D256" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>119</v>
+      </c>
+      <c r="B257" t="s">
+        <v>134</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+      <c r="D257" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>120</v>
+      </c>
+      <c r="B258" t="s">
+        <v>134</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>97</v>
+      </c>
+      <c r="B259" t="s">
+        <v>134</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+      <c r="D259" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>47</v>
+      </c>
+      <c r="B260" t="s">
+        <v>134</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+      <c r="D260" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
         <v>68</v>
       </c>
-      <c r="C137">
-        <v>2</v>
-      </c>
-      <c r="D137" t="s">
-        <v>110</v>
+      <c r="B261" t="s">
+        <v>134</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>91</v>
+      </c>
+      <c r="B262" t="s">
+        <v>134</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" t="s">
+        <v>134</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>26</v>
+      </c>
+      <c r="B264" t="s">
+        <v>134</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>27</v>
+      </c>
+      <c r="B265" t="s">
+        <v>134</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>109</v>
+      </c>
+      <c r="B266" t="s">
+        <v>134</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>44</v>
+      </c>
+      <c r="B267" t="s">
+        <v>134</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>90</v>
+      </c>
+      <c r="B268" t="s">
+        <v>134</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>85</v>
+      </c>
+      <c r="B269" t="s">
+        <v>134</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/barcode/intermediate_result.xlsx
+++ b/barcode/intermediate_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="268">
   <si>
     <t>Артикул</t>
   </si>
@@ -28,360 +28,381 @@
     <t>место</t>
   </si>
   <si>
-    <t>Термонаклейка Девушка Венок Луна Акварель</t>
+    <t>Термонаклейка Чёрный кот на закате у моря и цветов</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Желтый Мак</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Мак фиолетовый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Пионы надпись</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Пионы розовый Peonies</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка силует туман лес птицы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Марвел супергерои 4 верт фона</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Магнолия белые Botanical</t>
+  </si>
+  <si>
+    <t>Термонаклейка Яркий цветок акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Бабочка зеленная листья</t>
+  </si>
+  <si>
+    <t>Термонаклейка Подсолнухи Цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце разынй окрас</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый Кот в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка Ангел с хвостами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Маска Доберман Собака</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Силует Акварель Лес</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка и 2 ласточки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Египетская кошка в золоте</t>
+  </si>
+  <si>
+    <t>Термонаклейка Инь Янь Леопарды</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит в Цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит моряк волны лодка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лев Краски Дизайн</t>
+  </si>
+  <si>
+    <t>Термонаклейка Ловец снов акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Матрешка цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Микки Маус бабочки цверы силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Пантера в огненной ярости красный</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Колибри 2шт</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Розовые Ирис</t>
+  </si>
+  <si>
+    <t>Термонаклейка Черный Кот Силует астрономия</t>
+  </si>
+  <si>
+    <t>Термонаклейка арбуз с сердцем и надписью</t>
+  </si>
+  <si>
+    <t>Термонаклейки Nike Найк набор</t>
+  </si>
+  <si>
+    <t>Термонаклейка Перья Яркие Wild Spirit</t>
+  </si>
+  <si>
+    <t>Термонаклейка Соник Ежик бежит синий фон краски</t>
+  </si>
+  <si>
+    <t>Термонаклейка Зайчик ромашка в руках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Золотой лев в изысканном узоре</t>
+  </si>
+  <si>
+    <t>Термонаклейка Пара леопардов в ночной листве</t>
+  </si>
+  <si>
+    <t>Термонаклейка Акула серфинг в очках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Бабочки 4шт небо внутри</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый волк с цветами и узорами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка макияж Хэллоуин</t>
+  </si>
+  <si>
+    <t>Термонаклейка Крылья красочные маслом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Тигр в витражном стиле</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Розовые Spring Blossoms</t>
+  </si>
+  <si>
+    <t>Термонаклейка Котенок розовый закат звезды</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лило и Стич сидят</t>
+  </si>
+  <si>
+    <t>Термонаклейка Медуза Горгона черно-белый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Перья Украшение Ожерелье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Синий Акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мотылек Луна</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка в цветах и золотом круге</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лошадь в космических красках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро буквы</t>
   </si>
   <si>
     <t>Термонаклейка Радужный котенок счастливый</t>
   </si>
   <si>
-    <t>Термонаклейка Дейзи и Минни Маус коктейль</t>
-  </si>
-  <si>
-    <t>Термонаклейка Белый Кот в цветах</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лило и Стич сидят</t>
+    <t>Термонаклейка Сердце Большая волна в Канагаве</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро Поп арт жвачка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Ирисы акварелью Синий</t>
+  </si>
+  <si>
+    <t>Термонаклейка Воздушный шар из пионов</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кошка розово-фиолетовая крупный план</t>
+  </si>
+  <si>
+    <t>Термонаклейка Маленький принц на синем ките</t>
+  </si>
+  <si>
+    <t>Термонаклейка Минни Маус поправляет бант</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Синии Амариллис</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Симпсоны The Simpsons</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Соник Sonic</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Черепашки ниндзя turtles TMNT</t>
+  </si>
+  <si>
+    <t>Термонаклейка Весёлый енот выглядывает</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка гладиолус цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка лицо крылья</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка с колибри роза кольцо</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро геометрия</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Пионы красные Pionies</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чайка силует море внутри</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный котенок в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Море Силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка львенок выглядывает игриво</t>
+  </si>
+  <si>
+    <t>Термонаклейка Инь Янь Кошки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Природа Силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Матрешка Moscow</t>
+  </si>
+  <si>
+    <t>Термонаклейка Медведь, волк и матрёшка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Гарри Поттер и Хагрид курят</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка холст растут цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Леопард пятна сердечки голова</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
+  </si>
+  <si>
+    <t>Термонаклейка Черный Кот в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мишка сидит в очках Alone</t>
+  </si>
+  <si>
+    <t>Термонаклейка Берсерк Рыцарь с мечом под луной</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердечки термозаплатка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Магнолия фиолетовая Garden</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка в розовом платье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Морская Ракушка Силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Карточная королева кричит</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лотос розовый золотистый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лимоны и морской пейзаж</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка на закате держат руки море</t>
+  </si>
+  <si>
+    <t>Термонаклейка Самурай в маске воина</t>
+  </si>
+  <si>
+    <t>Термонаклейка Львенок счастливый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Фея в ночном лесу</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка с галактической магией</t>
+  </si>
+  <si>
+    <t>Термонаклейка Улыбающийся лисенок в снегу</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Букет Цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Солнце Луна Звезды Астрология</t>
+  </si>
+  <si>
+    <t>Термонаклейка львенок с милой улыбкой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мопс Собачка попа секси</t>
+  </si>
+  <si>
+    <t>Термонаклейка Синий лев с золотыми акцентами</t>
   </si>
   <si>
     <t>Термонаклейка Мэрилин Монро фото буквы</t>
   </si>
   <si>
-    <t>Термонаклейка Сердце Большая волна в Канагаве</t>
-  </si>
-  <si>
-    <t>Термонаклейка Черный Кот Силует астрономия</t>
+    <t>Термонаклейка Белая Лошадь Цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце отпечаток пальца красный</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный волк красный луна</t>
+  </si>
+  <si>
+    <t>Термонаклейка Тигр с букетом жёлтых тюльпанов</t>
+  </si>
+  <si>
+    <t>Термонаклейка Винни Пух и друзья на шаре</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Волосы Бабочки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка с бабочкой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит в голубых и розовых оттенках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лес Гитара Закат</t>
   </si>
   <si>
     <t>Термонаклейка Девочка и Лиса</t>
   </si>
   <si>
-    <t>Термонаклейка Девушка Силует Закат</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка и 2 ласточки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Динозавр в очках играет на гитаре</t>
-  </si>
-  <si>
-    <t>Термонаклейка Дисней утка Дейзи и Минни пис</t>
-  </si>
-  <si>
-    <t>Термонаклейка Единороги голубой и розовый</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кит прягает из воды закат</t>
-  </si>
-  <si>
-    <t>Термонаклейка Котенок розовый закат звезды</t>
-  </si>
-  <si>
-    <t>Термонаклейка Солнце Луна Звезды Астрология</t>
-  </si>
-  <si>
-    <t>Термонаклейка Фламинго Flamingo цветы</t>
-  </si>
-  <si>
-    <t>Термонаклейка львенок с милой улыбкой</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Пионы розовый Peonies</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лотос розовый золотистый</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка Силует Акварель Лес</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка на закате держат руки море</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка с колибри роза кольцо</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка холст растут цветы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Крылья красочные маслом</t>
-  </si>
-  <si>
-    <t>Термонаклейка Леопард пятна сердечки голова</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сердце отпечаток пальца красный</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Желтый Мак</t>
-  </si>
-  <si>
-    <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
-  </si>
-  <si>
-    <t>Термонаклейка Чёрный кот Catzilla Годзилла луч</t>
-  </si>
-  <si>
-    <t>Термонаклейка Египетская кошка в золоте</t>
-  </si>
-  <si>
-    <t>Термонаклейки Nike Найк набор</t>
-  </si>
-  <si>
-    <t>Термонаклейка набор Соник Sonic</t>
-  </si>
-  <si>
-    <t>Термонаклейка Перья Яркие Wild Spirit</t>
-  </si>
-  <si>
-    <t>Термонаклейка Губы Язык Краски Дизайн</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка с галактической магией</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кит моряк волны лодка</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кот цветы внутри</t>
-  </si>
-  <si>
-    <t>Термонаклейка Минни Маус поправляет бант</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мопс Собачка попа секси</t>
-  </si>
-  <si>
-    <t>Термонаклейка Пантера рычит звезды розовый фон</t>
-  </si>
-  <si>
-    <t>Термонаклейка Секс в большом городе подруги</t>
-  </si>
-  <si>
-    <t>Термонаклейка Спанч Боб и друзья</t>
-  </si>
-  <si>
-    <t>Термонаклейка Чёрный волк красный луна</t>
-  </si>
-  <si>
-    <t>Термонаклейка львенок выглядывает игриво</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кит в золотом дизайне космос</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Пионы надпись</t>
-  </si>
-  <si>
-    <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девочка в розовом платье</t>
-  </si>
-  <si>
-    <t>Термонаклейка Ловец снов акварель</t>
-  </si>
-  <si>
-    <t>Термонаклейка Маленький принц на синем ките</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
-  </si>
-  <si>
-    <t>Термонаклейка Перья Украшение Ожерелье</t>
-  </si>
-  <si>
-    <t>Термонаклейка Подсолнухи Цветы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сердце Море Силует</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Мак фиолетовый</t>
-  </si>
-  <si>
-    <t>Термонаклейка Чайка силует море внутри</t>
-  </si>
-  <si>
-    <t>Термонаклейка Чёрный котенок в цветах</t>
-  </si>
-  <si>
-    <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Термонаклейка набор Черепашки ниндзя turtles TMNT</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Синии Амариллис</t>
-  </si>
-  <si>
-    <t>Термонаклейка Самурай в маске воина</t>
-  </si>
-  <si>
-    <t>Термонаклейка Бабочка зеленная листья</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Синий Акварель</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аист оранжевый круг</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девочка Ангел с хвостами</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Розовые Spring Blossoms</t>
-  </si>
-  <si>
-    <t>Термонаклейка Человек Паук Лого позади</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка Природа Силует</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка силует туман лес птицы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кит в голубых и розовых оттенках</t>
-  </si>
-  <si>
-    <t>Термонаклейка Микки Маус бабочки цверы силует</t>
-  </si>
-  <si>
-    <t>Термонаклейка Морская Черепаха Море силует</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мэрилин Монро Поп арт жвачка</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сердце Бабочки летят</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сердце Букет Цветы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Ирисы акварелью Синий</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Колибри 2шт</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кит в Цветах</t>
-  </si>
-  <si>
-    <t>Термонаклейка Улыбающийся лисенок в снегу</t>
-  </si>
-  <si>
-    <t>Термонаклейка Пантера силует внутри цветы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кратос God of War с цитатой</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
-  </si>
-  <si>
-    <t>Термонаклейка Морская Ракушка Силует</t>
-  </si>
-  <si>
-    <t>Термонаклейка Радужный мишка с улыбкой</t>
-  </si>
-  <si>
-    <t>Термонаклейка Бабочки 4шт небо внутри</t>
-  </si>
-  <si>
-    <t>Термонаклейка Покемоны Пикачу и Эш Кетчум</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка Волосы Бабочки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Орхидея Цветы Розовые</t>
-  </si>
-  <si>
-    <t>Термонаклейка Весёлый енот выглядывает</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кассета цветы Vintage Soul</t>
-  </si>
-  <si>
-    <t>Термонаклейка Одри Хепбёрн холст Vogue</t>
-  </si>
-  <si>
-    <t>Термонаклейка Пара леопардов в ночной листве</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Магнолия белые Botanical</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кошка розово-фиолетовая крупный план</t>
-  </si>
-  <si>
-    <t>Термонаклейка Белая Лошадь Цветы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Попугаи 2шт зеленый и желтый</t>
-  </si>
-  <si>
-    <t>Термонаклейка Берсерк воин в аниме стиле</t>
-  </si>
-  <si>
-    <t>Термонаклейка Белый волк с цветами и узорами</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лес Гитара Закат</t>
-  </si>
-  <si>
-    <t>Термонаклейка арбуз с сердцем и надписью</t>
-  </si>
-  <si>
-    <t>Термонаклейка Человек Паук круг надпись снизу</t>
-  </si>
-  <si>
-    <t>Термонаклейка Яхта у белых домиков море</t>
-  </si>
-  <si>
-    <t>Термонаклейка Инь Янь Леопарды</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кит хвост из волн море океан</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мэрилин Монро буквы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сова в цветах</t>
-  </si>
-  <si>
-    <t>Термонаклейка Ёжики в кружках с сердечками</t>
-  </si>
-  <si>
-    <t>Термонаклейка Синий лев с золотыми акцентами</t>
-  </si>
-  <si>
-    <t>Термонаклейка Шредер и Кренг из Черепашек-ниндзя</t>
-  </si>
-  <si>
-    <t>Термонаклейка Винни Пух и друзья на шаре</t>
-  </si>
-  <si>
-    <t>Термонаклейка Яркий аниме белый дракон с огнём</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме девочка белые волосы уши кошки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мэрилин Монро геометрия</t>
+    <t>Термонаклейка Девушка бабочка Ван Гог</t>
   </si>
   <si>
     <t>Беларусь</t>
   </si>
   <si>
+    <t>Воронеж</t>
+  </si>
+  <si>
     <t>Дальний Восток</t>
   </si>
   <si>
@@ -391,6 +412,9 @@
     <t>Казань</t>
   </si>
   <si>
+    <t>Казахстан</t>
+  </si>
+  <si>
     <t>Калининград</t>
   </si>
   <si>
@@ -412,6 +436,9 @@
     <t>Сибирь</t>
   </si>
   <si>
+    <t>Тюмень</t>
+  </si>
+  <si>
     <t>Урал</t>
   </si>
   <si>
@@ -421,355 +448,376 @@
     <t>Юг</t>
   </si>
   <si>
-    <t>т24</t>
+    <t>Ярославль</t>
+  </si>
+  <si>
+    <t>в6</t>
+  </si>
+  <si>
+    <t>у10</t>
+  </si>
+  <si>
+    <t>у14</t>
+  </si>
+  <si>
+    <t>у1</t>
+  </si>
+  <si>
+    <t>у3</t>
+  </si>
+  <si>
+    <t>у17</t>
+  </si>
+  <si>
+    <t>е3</t>
+  </si>
+  <si>
+    <t>у2</t>
+  </si>
+  <si>
+    <t>б4</t>
+  </si>
+  <si>
+    <t>у20</t>
+  </si>
+  <si>
+    <t>в57</t>
+  </si>
+  <si>
+    <t>т30</t>
+  </si>
+  <si>
+    <t>т21</t>
+  </si>
+  <si>
+    <t>т14</t>
+  </si>
+  <si>
+    <t>в3</t>
+  </si>
+  <si>
+    <t>т39</t>
+  </si>
+  <si>
+    <t>д9</t>
+  </si>
+  <si>
+    <t>т29</t>
+  </si>
+  <si>
+    <t>т31</t>
+  </si>
+  <si>
+    <t>т28</t>
+  </si>
+  <si>
+    <t>в59</t>
+  </si>
+  <si>
+    <t>т15</t>
+  </si>
+  <si>
+    <t>т42</t>
+  </si>
+  <si>
+    <t>у36</t>
+  </si>
+  <si>
+    <t>т9</t>
+  </si>
+  <si>
+    <t>в7</t>
+  </si>
+  <si>
+    <t>т4</t>
+  </si>
+  <si>
+    <t>у39</t>
+  </si>
+  <si>
+    <t>в85</t>
+  </si>
+  <si>
+    <t>у6</t>
+  </si>
+  <si>
+    <t>у8</t>
+  </si>
+  <si>
+    <t>т66</t>
+  </si>
+  <si>
+    <t>т12</t>
+  </si>
+  <si>
+    <t>д13</t>
+  </si>
+  <si>
+    <t>у22</t>
+  </si>
+  <si>
+    <t>у26</t>
+  </si>
+  <si>
+    <t>б22</t>
+  </si>
+  <si>
+    <t>б7</t>
+  </si>
+  <si>
+    <t>в14</t>
+  </si>
+  <si>
+    <t>в13</t>
+  </si>
+  <si>
+    <t>б39</t>
+  </si>
+  <si>
+    <t>у38</t>
+  </si>
+  <si>
+    <t>в24</t>
+  </si>
+  <si>
+    <t>у7</t>
+  </si>
+  <si>
+    <t>у34</t>
+  </si>
+  <si>
+    <t>в19</t>
+  </si>
+  <si>
+    <t>у24</t>
+  </si>
+  <si>
+    <t>т47</t>
+  </si>
+  <si>
+    <t>б9</t>
+  </si>
+  <si>
+    <t>у32</t>
+  </si>
+  <si>
+    <t>у15</t>
+  </si>
+  <si>
+    <t>т23</t>
+  </si>
+  <si>
+    <t>т38</t>
+  </si>
+  <si>
+    <t>в9</t>
+  </si>
+  <si>
+    <t>в11</t>
+  </si>
+  <si>
+    <t>т45</t>
   </si>
   <si>
     <t>д18</t>
   </si>
   <si>
-    <t>б93</t>
-  </si>
-  <si>
-    <t>т39</t>
-  </si>
-  <si>
-    <t>б9</t>
+    <t>у28</t>
+  </si>
+  <si>
+    <t>е2</t>
+  </si>
+  <si>
+    <t>у49</t>
+  </si>
+  <si>
+    <t>у13</t>
+  </si>
+  <si>
+    <t>у4</t>
+  </si>
+  <si>
+    <t>в50</t>
+  </si>
+  <si>
+    <t>в5</t>
+  </si>
+  <si>
+    <t>в23</t>
+  </si>
+  <si>
+    <t>б42</t>
+  </si>
+  <si>
+    <t>у12</t>
+  </si>
+  <si>
+    <t>е5</t>
+  </si>
+  <si>
+    <t>е4</t>
+  </si>
+  <si>
+    <t>е1</t>
+  </si>
+  <si>
+    <t>д4</t>
+  </si>
+  <si>
+    <t>д16</t>
+  </si>
+  <si>
+    <t>у11</t>
+  </si>
+  <si>
+    <t>у45</t>
+  </si>
+  <si>
+    <t>у25</t>
+  </si>
+  <si>
+    <t>т67</t>
+  </si>
+  <si>
+    <t>у16</t>
+  </si>
+  <si>
+    <t>у31</t>
+  </si>
+  <si>
+    <t>д3</t>
+  </si>
+  <si>
+    <t>т34</t>
+  </si>
+  <si>
+    <t>д12</t>
+  </si>
+  <si>
+    <t>т51</t>
+  </si>
+  <si>
+    <t>т43</t>
+  </si>
+  <si>
+    <t>т7</t>
+  </si>
+  <si>
+    <t>в47</t>
+  </si>
+  <si>
+    <t>в83</t>
+  </si>
+  <si>
+    <t>у43</t>
+  </si>
+  <si>
+    <t>у33</t>
+  </si>
+  <si>
+    <t>у40</t>
+  </si>
+  <si>
+    <t>т27</t>
+  </si>
+  <si>
+    <t>б91</t>
+  </si>
+  <si>
+    <t>в88</t>
+  </si>
+  <si>
+    <t>б46</t>
+  </si>
+  <si>
+    <t>у23</t>
+  </si>
+  <si>
+    <t>д7</t>
+  </si>
+  <si>
+    <t>т20</t>
+  </si>
+  <si>
+    <t>в17</t>
+  </si>
+  <si>
+    <t>т19</t>
+  </si>
+  <si>
+    <t>в48</t>
+  </si>
+  <si>
+    <t>т13</t>
+  </si>
+  <si>
+    <t>в80</t>
+  </si>
+  <si>
+    <t>д20</t>
+  </si>
+  <si>
+    <t>в12</t>
+  </si>
+  <si>
+    <t>д5</t>
+  </si>
+  <si>
+    <t>в8</t>
+  </si>
+  <si>
+    <t>д19</t>
+  </si>
+  <si>
+    <t>т32</t>
+  </si>
+  <si>
+    <t>у48</t>
+  </si>
+  <si>
+    <t>д11</t>
+  </si>
+  <si>
+    <t>т71</t>
+  </si>
+  <si>
+    <t>в15</t>
   </si>
   <si>
     <t>т70</t>
   </si>
   <si>
-    <t>у28</t>
-  </si>
-  <si>
-    <t>т12</t>
+    <t>т40</t>
+  </si>
+  <si>
+    <t>т69</t>
+  </si>
+  <si>
+    <t>в25</t>
+  </si>
+  <si>
+    <t>в18</t>
+  </si>
+  <si>
+    <t>б44</t>
+  </si>
+  <si>
+    <t>т35</t>
+  </si>
+  <si>
+    <t>д6</t>
+  </si>
+  <si>
+    <t>в21</t>
+  </si>
+  <si>
+    <t>у44</t>
   </si>
   <si>
     <t>т22</t>
   </si>
   <si>
-    <t>т36</t>
-  </si>
-  <si>
-    <t>т28</t>
-  </si>
-  <si>
-    <t>б55</t>
-  </si>
-  <si>
-    <t>б27</t>
-  </si>
-  <si>
-    <t>б2</t>
-  </si>
-  <si>
-    <t>у21</t>
-  </si>
-  <si>
-    <t>т47</t>
-  </si>
-  <si>
-    <t>у48</t>
-  </si>
-  <si>
-    <t>т55</t>
-  </si>
-  <si>
-    <t>д11</t>
-  </si>
-  <si>
-    <t>у17</t>
-  </si>
-  <si>
-    <t>т19</t>
-  </si>
-  <si>
-    <t>т31</t>
-  </si>
-  <si>
-    <t>т13</t>
-  </si>
-  <si>
-    <t>у25</t>
-  </si>
-  <si>
-    <t>у43</t>
-  </si>
-  <si>
-    <t>у34</t>
-  </si>
-  <si>
-    <t>у33</t>
-  </si>
-  <si>
-    <t>т69</t>
-  </si>
-  <si>
-    <t>у10</t>
-  </si>
-  <si>
-    <t>в3</t>
-  </si>
-  <si>
-    <t>в89</t>
-  </si>
-  <si>
-    <t>в59</t>
-  </si>
-  <si>
-    <t>у22</t>
-  </si>
-  <si>
-    <t>е4</t>
-  </si>
-  <si>
-    <t>у26</t>
-  </si>
-  <si>
-    <t>т68</t>
-  </si>
-  <si>
-    <t>в8</t>
-  </si>
-  <si>
-    <t>у36</t>
-  </si>
-  <si>
-    <t>т26</t>
-  </si>
-  <si>
-    <t>б42</t>
-  </si>
-  <si>
-    <t>т71</t>
-  </si>
-  <si>
-    <t>т65</t>
-  </si>
-  <si>
-    <t>т59</t>
-  </si>
-  <si>
-    <t>б11</t>
-  </si>
-  <si>
-    <t>в25</t>
-  </si>
-  <si>
-    <t>д12</t>
-  </si>
-  <si>
-    <t>в22</t>
-  </si>
-  <si>
-    <t>у1</t>
-  </si>
-  <si>
-    <t>е3</t>
-  </si>
-  <si>
-    <t>д7</t>
-  </si>
-  <si>
-    <t>в7</t>
-  </si>
-  <si>
-    <t>в23</t>
-  </si>
-  <si>
-    <t>у49</t>
-  </si>
-  <si>
-    <t>у15</t>
-  </si>
-  <si>
-    <t>т21</t>
-  </si>
-  <si>
-    <t>т34</t>
-  </si>
-  <si>
-    <t>у14</t>
-  </si>
-  <si>
-    <t>у31</t>
-  </si>
-  <si>
-    <t>д3</t>
-  </si>
-  <si>
-    <t>е2</t>
-  </si>
-  <si>
-    <t>е1</t>
-  </si>
-  <si>
-    <t>у3</t>
-  </si>
-  <si>
-    <t>у12</t>
-  </si>
-  <si>
-    <t>в80</t>
-  </si>
-  <si>
-    <t>т30</t>
-  </si>
-  <si>
-    <t>т23</t>
-  </si>
-  <si>
-    <t>у5</t>
-  </si>
-  <si>
-    <t>д9</t>
-  </si>
-  <si>
-    <t>у24</t>
-  </si>
-  <si>
-    <t>б5</t>
-  </si>
-  <si>
-    <t>т43</t>
-  </si>
-  <si>
-    <t>у2</t>
-  </si>
-  <si>
-    <t>в21</t>
-  </si>
-  <si>
-    <t>у39</t>
-  </si>
-  <si>
-    <t>у41</t>
-  </si>
-  <si>
-    <t>у13</t>
-  </si>
-  <si>
-    <t>т1</t>
-  </si>
-  <si>
-    <t>т32</t>
-  </si>
-  <si>
-    <t>у4</t>
-  </si>
-  <si>
-    <t>у6</t>
-  </si>
-  <si>
-    <t>т42</t>
-  </si>
-  <si>
-    <t>д19</t>
-  </si>
-  <si>
-    <t>у27</t>
-  </si>
-  <si>
-    <t>в67</t>
-  </si>
-  <si>
-    <t>в12</t>
-  </si>
-  <si>
-    <t>т20</t>
-  </si>
-  <si>
-    <t>д17</t>
-  </si>
-  <si>
-    <t>у38</t>
-  </si>
-  <si>
-    <t>б45</t>
-  </si>
-  <si>
-    <t>т35</t>
-  </si>
-  <si>
-    <t>т41</t>
-  </si>
-  <si>
-    <t>д4</t>
-  </si>
-  <si>
-    <t>т49</t>
-  </si>
-  <si>
-    <t>у18</t>
-  </si>
-  <si>
-    <t>в13</t>
-  </si>
-  <si>
-    <t>у20</t>
-  </si>
-  <si>
-    <t>в5</t>
-  </si>
-  <si>
-    <t>т40</t>
-  </si>
-  <si>
-    <t>т5</t>
-  </si>
-  <si>
-    <t>в77</t>
-  </si>
-  <si>
-    <t>в24</t>
-  </si>
-  <si>
-    <t>у44</t>
-  </si>
-  <si>
-    <t>д13</t>
-  </si>
-  <si>
-    <t>б25</t>
-  </si>
-  <si>
-    <t>в38</t>
-  </si>
-  <si>
-    <t>т15</t>
-  </si>
-  <si>
-    <t>у8</t>
-  </si>
-  <si>
-    <t>т60</t>
-  </si>
-  <si>
-    <t>т45</t>
-  </si>
-  <si>
-    <t>в16</t>
-  </si>
-  <si>
-    <t>д22</t>
-  </si>
-  <si>
-    <t>в15</t>
-  </si>
-  <si>
-    <t>в63</t>
-  </si>
-  <si>
-    <t>б44</t>
-  </si>
-  <si>
-    <t>в68</t>
-  </si>
-  <si>
-    <t>т54</t>
-  </si>
-  <si>
-    <t>т67</t>
+    <t>т57</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D269"/>
+  <dimension ref="A1:D339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1152,13 +1200,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1166,13 +1214,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1180,13 +1228,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,13 +1242,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,13 +1270,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1236,13 +1284,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1298,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1312,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1326,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,13 +1340,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,13 +1354,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1320,13 +1368,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1334,13 +1382,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1348,13 +1396,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1362,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1376,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1390,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1404,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1418,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1432,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1446,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1460,13 +1508,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1474,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1488,951 +1536,951 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C75">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B92" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2440,181 +2488,181 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2622,1805 +2670,1805 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B108" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C121">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C122">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C123">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C124">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C125">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C126">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B131" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C131">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B134" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B136" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B138" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C140">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C141">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B142" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B143" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B144" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B148" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B150" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B151" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B152" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B153" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C153">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B154" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C154">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D154" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B155" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C156">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B157" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C157">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B158" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C158">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D158" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B159" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C160">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B161" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B162" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C162">
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C163">
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B164" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B165" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B166" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B167" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C167">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B168" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C168">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B172" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="B173" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B174" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B175" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B176" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B177" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B178" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B179" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B180" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C180">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B181" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C181">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C182">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B183" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C183">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B184" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C184">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B185" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C185">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B186" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C186">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B187" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C187">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D187" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="B188" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C188">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B189" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C189">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B190" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C190">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B191" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B192" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B193" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B196" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B197" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D197" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B198" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B199" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B200" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="B201" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B202" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
       <c r="D202" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B203" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
       <c r="D203" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B204" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C204">
         <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B205" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B206" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C206">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B207" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C207">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B208" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C208">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B209" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C209">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C210">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B211" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D211" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D212" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D213" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B216" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B217" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="B218" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B219" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B220" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="B221" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D221" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B222" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B223" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C223">
         <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="B224" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C224">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D224" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B225" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C225">
         <v>5</v>
       </c>
       <c r="D225" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="B226" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C226">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D226" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B227" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C227">
         <v>4</v>
       </c>
       <c r="D227" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B228" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C228">
         <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B229" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C229">
         <v>4</v>
       </c>
       <c r="D229" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C230">
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B231" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C231">
         <v>4</v>
       </c>
       <c r="D231" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B232" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D232" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B233" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="B234" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B235" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4428,461 +4476,461 @@
         <v>15</v>
       </c>
       <c r="B236" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="B237" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C237">
         <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B238" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C238">
         <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B239" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B240" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="B241" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B242" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C242">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B243" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C243">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B244" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C244">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B245" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C245">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B246" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C246">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C247">
         <v>10</v>
       </c>
       <c r="D247" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B248" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C248">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D248" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B249" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C249">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D249" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B250" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C250">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B251" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C251">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B252" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C252">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B253" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C253">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D253" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B254" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C254">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B255" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C255">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B256" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C256">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B257" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B258" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C258">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B259" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D259" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B260" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D260" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D261" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B262" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D262" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B263" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B264" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D264" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B266" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D266" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B267" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D267" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B268" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D268" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4890,13 +4938,993 @@
         <v>85</v>
       </c>
       <c r="B269" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D269" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>39</v>
+      </c>
+      <c r="B270" t="s">
+        <v>141</v>
+      </c>
+      <c r="C270">
+        <v>4</v>
+      </c>
+      <c r="D270" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>111</v>
+      </c>
+      <c r="B271" t="s">
+        <v>141</v>
+      </c>
+      <c r="C271">
+        <v>4</v>
+      </c>
+      <c r="D271" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>40</v>
+      </c>
+      <c r="B272" t="s">
+        <v>141</v>
+      </c>
+      <c r="C272">
+        <v>4</v>
+      </c>
+      <c r="D272" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>118</v>
+      </c>
+      <c r="B273" t="s">
+        <v>141</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>94</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>44</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>42</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>68</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>53</v>
+      </c>
+      <c r="B278" t="s">
+        <v>141</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>56</v>
+      </c>
+      <c r="B279" t="s">
+        <v>141</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>115</v>
+      </c>
+      <c r="B280" t="s">
+        <v>141</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>60</v>
+      </c>
+      <c r="B281" t="s">
+        <v>141</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>92</v>
+      </c>
+      <c r="B282" t="s">
+        <v>141</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>119</v>
+      </c>
+      <c r="B283" t="s">
+        <v>141</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>37</v>
+      </c>
+      <c r="B284" t="s">
+        <v>141</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>55</v>
+      </c>
+      <c r="B285" t="s">
+        <v>142</v>
+      </c>
+      <c r="C285">
+        <v>8</v>
+      </c>
+      <c r="D285" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>120</v>
+      </c>
+      <c r="B286" t="s">
+        <v>142</v>
+      </c>
+      <c r="C286">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>62</v>
+      </c>
+      <c r="B287" t="s">
+        <v>142</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288" t="s">
+        <v>142</v>
+      </c>
+      <c r="C288">
+        <v>5</v>
+      </c>
+      <c r="D288" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>75</v>
+      </c>
+      <c r="B289" t="s">
+        <v>142</v>
+      </c>
+      <c r="C289">
+        <v>4</v>
+      </c>
+      <c r="D289" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>56</v>
+      </c>
+      <c r="B290" t="s">
+        <v>142</v>
+      </c>
+      <c r="C290">
+        <v>4</v>
+      </c>
+      <c r="D290" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>87</v>
+      </c>
+      <c r="B291" t="s">
+        <v>142</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" t="s">
+        <v>142</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>99</v>
+      </c>
+      <c r="B293" t="s">
+        <v>142</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>104</v>
+      </c>
+      <c r="B294" t="s">
+        <v>142</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>40</v>
+      </c>
+      <c r="B295" t="s">
+        <v>142</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" t="s">
+        <v>142</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>71</v>
+      </c>
+      <c r="B297" t="s">
+        <v>142</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="D297" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>9</v>
+      </c>
+      <c r="B298" t="s">
+        <v>143</v>
+      </c>
+      <c r="C298">
+        <v>14</v>
+      </c>
+      <c r="D298" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>38</v>
+      </c>
+      <c r="B299" t="s">
+        <v>143</v>
+      </c>
+      <c r="C299">
+        <v>14</v>
+      </c>
+      <c r="D299" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>52</v>
+      </c>
+      <c r="B300" t="s">
+        <v>143</v>
+      </c>
+      <c r="C300">
+        <v>12</v>
+      </c>
+      <c r="D300" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>92</v>
+      </c>
+      <c r="B301" t="s">
+        <v>143</v>
+      </c>
+      <c r="C301">
+        <v>8</v>
+      </c>
+      <c r="D301" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>63</v>
+      </c>
+      <c r="B302" t="s">
+        <v>143</v>
+      </c>
+      <c r="C302">
+        <v>7</v>
+      </c>
+      <c r="D302" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>75</v>
+      </c>
+      <c r="B303" t="s">
+        <v>143</v>
+      </c>
+      <c r="C303">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>108</v>
+      </c>
+      <c r="B304" t="s">
+        <v>143</v>
+      </c>
+      <c r="C304">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>99</v>
+      </c>
+      <c r="B305" t="s">
+        <v>143</v>
+      </c>
+      <c r="C305">
+        <v>5</v>
+      </c>
+      <c r="D305" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>121</v>
+      </c>
+      <c r="B306" t="s">
+        <v>143</v>
+      </c>
+      <c r="C306">
+        <v>4</v>
+      </c>
+      <c r="D306" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>77</v>
+      </c>
+      <c r="B307" t="s">
+        <v>143</v>
+      </c>
+      <c r="C307">
+        <v>4</v>
+      </c>
+      <c r="D307" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>41</v>
+      </c>
+      <c r="B308" t="s">
+        <v>143</v>
+      </c>
+      <c r="C308">
+        <v>4</v>
+      </c>
+      <c r="D308" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>37</v>
+      </c>
+      <c r="B309" t="s">
+        <v>143</v>
+      </c>
+      <c r="C309">
+        <v>4</v>
+      </c>
+      <c r="D309" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>44</v>
+      </c>
+      <c r="B310" t="s">
+        <v>143</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" t="s">
+        <v>143</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+      <c r="D311" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>45</v>
+      </c>
+      <c r="B312" t="s">
+        <v>143</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>95</v>
+      </c>
+      <c r="B313" t="s">
+        <v>143</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>89</v>
+      </c>
+      <c r="B314" t="s">
+        <v>143</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>122</v>
+      </c>
+      <c r="B315" t="s">
+        <v>143</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>22</v>
+      </c>
+      <c r="B316" t="s">
+        <v>143</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>123</v>
+      </c>
+      <c r="B317" t="s">
+        <v>143</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>124</v>
+      </c>
+      <c r="B318" t="s">
+        <v>143</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+      <c r="D318" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>105</v>
+      </c>
+      <c r="B319" t="s">
+        <v>143</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+      <c r="D319" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>53</v>
+      </c>
+      <c r="B320" t="s">
+        <v>143</v>
+      </c>
+      <c r="C320">
+        <v>2</v>
+      </c>
+      <c r="D320" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>113</v>
+      </c>
+      <c r="B321" t="s">
+        <v>143</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>96</v>
+      </c>
+      <c r="B322" t="s">
+        <v>143</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>111</v>
+      </c>
+      <c r="B323" t="s">
+        <v>143</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>93</v>
+      </c>
+      <c r="B324" t="s">
+        <v>143</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>14</v>
+      </c>
+      <c r="B325" t="s">
+        <v>143</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+      <c r="D325" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>74</v>
+      </c>
+      <c r="B326" t="s">
+        <v>144</v>
+      </c>
+      <c r="C326">
+        <v>6</v>
+      </c>
+      <c r="D326" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>125</v>
+      </c>
+      <c r="B327" t="s">
+        <v>144</v>
+      </c>
+      <c r="C327">
+        <v>6</v>
+      </c>
+      <c r="D327" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>28</v>
+      </c>
+      <c r="B328" t="s">
+        <v>144</v>
+      </c>
+      <c r="C328">
+        <v>5</v>
+      </c>
+      <c r="D328" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>91</v>
+      </c>
+      <c r="B329" t="s">
+        <v>144</v>
+      </c>
+      <c r="C329">
+        <v>4</v>
+      </c>
+      <c r="D329" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>72</v>
+      </c>
+      <c r="B330" t="s">
+        <v>144</v>
+      </c>
+      <c r="C330">
+        <v>4</v>
+      </c>
+      <c r="D330" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>21</v>
+      </c>
+      <c r="B331" t="s">
+        <v>144</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>126</v>
+      </c>
+      <c r="B332" t="s">
+        <v>144</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>47</v>
+      </c>
+      <c r="B333" t="s">
+        <v>144</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>99</v>
+      </c>
+      <c r="B334" t="s">
+        <v>144</v>
+      </c>
+      <c r="C334">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>56</v>
+      </c>
+      <c r="B335" t="s">
+        <v>144</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>107</v>
+      </c>
+      <c r="B336" t="s">
+        <v>144</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+      <c r="D336" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>37</v>
+      </c>
+      <c r="B337" t="s">
+        <v>144</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>71</v>
+      </c>
+      <c r="B338" t="s">
+        <v>144</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+      <c r="D338" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>38</v>
+      </c>
+      <c r="B339" t="s">
+        <v>144</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/barcode/intermediate_result.xlsx
+++ b/barcode/intermediate_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="147">
   <si>
     <t>Артикул</t>
   </si>
@@ -28,235 +28,205 @@
     <t>место</t>
   </si>
   <si>
-    <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Пионы надпись</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аист оранжевый круг</t>
-  </si>
-  <si>
-    <t>Термонаклейка Весёлый енот выглядывает</t>
-  </si>
-  <si>
-    <t>Термонаклейка Гортензии акварель</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лило и Стич сидят</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Мак фиолетовый</t>
-  </si>
-  <si>
-    <t>Термонаклейка Яркий цветок акварель</t>
-  </si>
-  <si>
-    <t>Термонаклейка арбуз с сердцем и надписью</t>
-  </si>
-  <si>
-    <t>Термонаклейка набор Черепашки ниндзя turtles TMNT</t>
-  </si>
-  <si>
-    <t>Термонаклейка Белый волк с красным солнцем</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка с галактической магией</t>
-  </si>
-  <si>
-    <t>Термонаклейка Египетская кошка в золоте</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лотос розовый золотистый</t>
-  </si>
-  <si>
-    <t>Термонаклейка Морская Черепаха Море силует</t>
-  </si>
-  <si>
-    <t>Термонаклейка Синий лев с золотыми акцентами</t>
-  </si>
-  <si>
-    <t>Термонаклейка Спанч Боб и друзья</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Синий Акварель</t>
-  </si>
-  <si>
-    <t>Термонаклейка Черепаха Цветы на панцире</t>
-  </si>
-  <si>
-    <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
-  </si>
-  <si>
-    <t>Термонаклейка Яхта у белых домиков море</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девочка Ангел с хвостами</t>
-  </si>
-  <si>
-    <t>Термонаклейка Тигренок счастливый радужный</t>
-  </si>
-  <si>
-    <t>Термонаклейка Медведь, волк и матрёшка</t>
-  </si>
-  <si>
-    <t>Термонаклейка Гарри Поттер и Хагрид курят</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лев Краски Дизайн</t>
-  </si>
-  <si>
-    <t>Термонаклейка Тигр Краски Дизайн</t>
-  </si>
-  <si>
-    <t>Термонаклейка набор Соник Sonic</t>
-  </si>
-  <si>
-    <t>Термонаклейка Спанч Боб и друзья Keep Vibes</t>
-  </si>
-  <si>
-    <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Термонаклейка Белая Лошадь Цветы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Берсерк Рыцарь с мечом под луной</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девочка в розовом платье</t>
-  </si>
-  <si>
-    <t>Термонаклейка Звезды Белые термозаплатка</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кибердевушка с капюшоном</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сейлор Мун Sailor Moon радуется</t>
-  </si>
-  <si>
-    <t>Термонаклейка Череп в терновом венке и розах</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Ирисы акварелью Синий</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка в цветах и золотом круге</t>
-  </si>
-  <si>
-    <t>Термонаклейка Щенячий патруль 2 Маршал Крепыш</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
-  </si>
-  <si>
-    <t>Термонаклейка Белый волк с цветами и узорами</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка силует туман лес птицы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Инь Янь Леопарды</t>
-  </si>
-  <si>
-    <t>Термонаклейка Радужный мишка с улыбкой</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сердце отпечаток пальца красный</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кит моряк волны лодка</t>
-  </si>
-  <si>
-    <t>Термонаклейка Три Миньона бегут</t>
-  </si>
-  <si>
-    <t>Термонаклейка набор Симпсоны The Simpsons</t>
-  </si>
-  <si>
-    <t>Термонаклейка Большая волна в Канагаве Солнце</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка ebis ono by horse</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лимоны и морской пейзаж</t>
-  </si>
-  <si>
-    <t>Термонаклейка Матрешка Moscow</t>
-  </si>
-  <si>
-    <t>Термонаклейка Матрешка с хлебом</t>
-  </si>
-  <si>
-    <t>Термонаклейка Фламинго Flamingo цветы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Крылья красочные маслом</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лошадь в космических красках</t>
-  </si>
-  <si>
-    <t>Термонаклейка Оленёнок в шарфе</t>
-  </si>
-  <si>
-    <t>Термонаклейка Прикосновение рук Сотворения Адама</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме девочка в цветах и фонарях</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кот цветы внутри</t>
-  </si>
-  <si>
-    <t>Термонаклейка Улыбающийся лисенок в снегу</t>
-  </si>
-  <si>
-    <t>Термонаклейка Чёрный котенок в цветах</t>
-  </si>
-  <si>
-    <t>Термонаклейка Чайка силует море внутри</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сердце Букет Цветы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Чёрный кот на закате у моря и цветов</t>
-  </si>
-  <si>
-    <t>Термонаклейки Nike Найк набор</t>
-  </si>
-  <si>
-    <t>Термонаклейка Зевающий зайка в пижаме</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кибер-девушка в стиле аниме</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лисёнок в свитере с узорами</t>
-  </si>
-  <si>
-    <t>Термонаклейка Самурай в маске воина</t>
-  </si>
-  <si>
-    <t>Термонаклейка Лисёнок с розовыми щёчками</t>
-  </si>
-  <si>
-    <t>Термонаклейка Медуза в очках и с змеями</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кратос God of War с цитатой</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка макияж Хэллоуин</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мэрилин Монро Поп арт жвачка</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка Силует Акварель Лес</t>
+    <t>Термонаклейка Миньоны горкой из 3 штук</t>
+  </si>
+  <si>
+    <t>Термонаклейка Шенячий Патруль полицеский</t>
+  </si>
+  <si>
+    <t>Термонаклейка Шенячий Патруль и Логотип</t>
+  </si>
+  <si>
+    <t>Термонаклейка Шенячий Патруль мальчик главный</t>
+  </si>
+  <si>
+    <t>Платье желтое р104</t>
+  </si>
+  <si>
+    <t>Термонаклейка Жираф с цветком во рту</t>
+  </si>
+  <si>
+    <t>Термобирки Дисней мальчики</t>
+  </si>
+  <si>
+    <t>Термобирки Транспорт</t>
+  </si>
+  <si>
+    <t>Термобирки Щенячий патруль</t>
+  </si>
+  <si>
+    <t>Термонаклейка Ежик Соник бежит из кольца</t>
+  </si>
+  <si>
+    <t>Платье желтое р92</t>
+  </si>
+  <si>
+    <t>Термонаклейка Аниме девочка в куртке со стикерами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Единороги набор</t>
+  </si>
+  <si>
+    <t>Термонаклейка Ежик праздник</t>
+  </si>
+  <si>
+    <t>Термонаклейка Май Литл Пони радуга</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мона Лиза, Фрида Кало свадьба</t>
+  </si>
+  <si>
+    <t>Термонаклейка Холодное сердце 3 Эльза Анна Олаф</t>
+  </si>
+  <si>
+    <t>Термонаклейка Бюст статуи Feelings скрыты глаза</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит в море картина маслом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Динозавры</t>
+  </si>
+  <si>
+    <t>Термонаклейка Минни Маус фея костюм</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сейлор Мун в куртке Sailor Moon</t>
+  </si>
+  <si>
+    <t>Термонаклейка Единорог очки сердечки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Собачки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кот картина Ван Гог</t>
+  </si>
+  <si>
+    <t>Термонаклейка Минни Маус зайчик в руках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Том и Джерри в очках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Единорог и балерина</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка с чупа чупсом I dont care</t>
+  </si>
+  <si>
+    <t>Термонаклейка Аниме Девочка с черным капюшоном</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кот вцепился сползает вниз</t>
+  </si>
+  <si>
+    <t>Термонаклейка Леопардовое сердце поцелуй губ</t>
+  </si>
+  <si>
+    <t>Термонаклейка Марвел супергерои и надпись</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мишка пилот</t>
+  </si>
+  <si>
+    <t>Термонаклейка Черепашки Ниндзя классика</t>
+  </si>
+  <si>
+    <t>Термонаклейка картина Поцелуй Густава Климта</t>
+  </si>
+  <si>
+    <t>Футболка Единорог р128</t>
+  </si>
+  <si>
+    <t>Футболка Соник Ежик Sonic р134</t>
+  </si>
+  <si>
+    <t>Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
+  </si>
+  <si>
+    <t>Термонаклейка Минни Маус сидит сердечки</t>
+  </si>
+  <si>
+    <t>Термонаклейка мультяшный Кот картина Ван Гог</t>
+  </si>
+  <si>
+    <t>Термонаклейка Vogue Вог Эйфелева башня</t>
+  </si>
+  <si>
+    <t>Термонаклейка Миньоны горкой из 6 штук</t>
+  </si>
+  <si>
+    <t>Термонаклейка Фея</t>
+  </si>
+  <si>
+    <t>Термонаклейка Джокер поп арт Joker</t>
+  </si>
+  <si>
+    <t>Термонаклейка Минни Маус подмигивает в очках</t>
+  </si>
+  <si>
+    <t>Платье желтое р110</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мишка в кепке делает селфи</t>
+  </si>
+  <si>
+    <t>Термонаклейка Play Boy губы обложка губы марка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Женщина кошка пьет молоко из стакана</t>
+  </si>
+  <si>
+    <t>Термонаклейка Зайка в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Блондинка с котом на голове</t>
+  </si>
+  <si>
+    <t>Термонаклейка Марвел супергерои круг</t>
+  </si>
+  <si>
+    <t>Термонаклейка Африканская Девушка черный силуэт</t>
+  </si>
+  <si>
+    <t>Термонаклейка Микки Маус мультфильмы внутри</t>
+  </si>
+  <si>
+    <t>Футболка Единорог р134</t>
+  </si>
+  <si>
+    <t>Термонаклейка Майнкрафт скачет на свинье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Киллиан Мёрфи Острые козырьки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Микки Маус и Минни сердечко</t>
+  </si>
+  <si>
+    <t>Термонаклейка Dior Диор Цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кот Шанель Chanel</t>
+  </si>
+  <si>
+    <t>Платье желтое р98</t>
+  </si>
+  <si>
+    <t>Термонаклейка Эльза холодное сердце</t>
+  </si>
+  <si>
+    <t>Термонаклейка Микки Маус подмигивает синий круг</t>
+  </si>
+  <si>
+    <t>Термонаклейка Человек Паук и Веном половинки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Поцелуй берега и реки картина маслом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Черный Силуэт Девушки</t>
   </si>
   <si>
     <t>Беларусь</t>
@@ -268,7 +238,7 @@
     <t>Дальний Восток</t>
   </si>
   <si>
-    <t>Казахстан</t>
+    <t>Казань</t>
   </si>
   <si>
     <t>Калининград</t>
@@ -304,235 +274,187 @@
     <t>Ярославль</t>
   </si>
   <si>
-    <t>е3</t>
-  </si>
-  <si>
-    <t>у1</t>
-  </si>
-  <si>
-    <t>у5</t>
-  </si>
-  <si>
-    <t>д4</t>
-  </si>
-  <si>
-    <t>в44</t>
-  </si>
-  <si>
-    <t>б9</t>
-  </si>
-  <si>
-    <t>у14</t>
-  </si>
-  <si>
-    <t>в57</t>
-  </si>
-  <si>
-    <t>д13</t>
-  </si>
-  <si>
-    <t>е1</t>
-  </si>
-  <si>
-    <t>в66</t>
-  </si>
-  <si>
-    <t>в8</t>
-  </si>
-  <si>
-    <t>в59</t>
-  </si>
-  <si>
-    <t>т19</t>
-  </si>
-  <si>
-    <t>у41</t>
-  </si>
-  <si>
-    <t>в15</t>
-  </si>
-  <si>
-    <t>б11</t>
-  </si>
-  <si>
-    <t>т23</t>
-  </si>
-  <si>
-    <t>т37</t>
-  </si>
-  <si>
-    <t>в3</t>
-  </si>
-  <si>
-    <t>в38</t>
-  </si>
-  <si>
-    <t>д9</t>
-  </si>
-  <si>
-    <t>д21</t>
-  </si>
-  <si>
-    <t>в47</t>
-  </si>
-  <si>
-    <t>в83</t>
-  </si>
-  <si>
-    <t>т9</t>
-  </si>
-  <si>
-    <t>т8</t>
-  </si>
-  <si>
-    <t>е4</t>
-  </si>
-  <si>
-    <t>б24</t>
-  </si>
-  <si>
-    <t>е2</t>
-  </si>
-  <si>
-    <t>т40</t>
-  </si>
-  <si>
-    <t>в88</t>
-  </si>
-  <si>
-    <t>д7</t>
-  </si>
-  <si>
-    <t>б82</t>
-  </si>
-  <si>
-    <t>в86</t>
-  </si>
-  <si>
-    <t>т3</t>
-  </si>
-  <si>
-    <t>в81</t>
-  </si>
-  <si>
-    <t>у4</t>
-  </si>
-  <si>
-    <t>в9</t>
-  </si>
-  <si>
-    <t>б37</t>
-  </si>
-  <si>
-    <t>у3</t>
-  </si>
-  <si>
-    <t>в24</t>
-  </si>
-  <si>
-    <t>у2</t>
-  </si>
-  <si>
-    <t>т15</t>
-  </si>
-  <si>
-    <t>д17</t>
-  </si>
-  <si>
-    <t>т69</t>
-  </si>
-  <si>
-    <t>у36</t>
-  </si>
-  <si>
-    <t>б34</t>
-  </si>
-  <si>
-    <t>е5</t>
-  </si>
-  <si>
-    <t>т11</t>
-  </si>
-  <si>
-    <t>в33</t>
-  </si>
-  <si>
-    <t>в48</t>
-  </si>
-  <si>
-    <t>т7</t>
-  </si>
-  <si>
-    <t>т61</t>
-  </si>
-  <si>
-    <t>т55</t>
-  </si>
-  <si>
-    <t>у34</t>
-  </si>
-  <si>
-    <t>в11</t>
-  </si>
-  <si>
-    <t>д23</t>
-  </si>
-  <si>
-    <t>в43</t>
-  </si>
-  <si>
-    <t>в1</t>
-  </si>
-  <si>
-    <t>т26</t>
-  </si>
-  <si>
-    <t>д19</t>
-  </si>
-  <si>
-    <t>д3</t>
-  </si>
-  <si>
-    <t>у31</t>
-  </si>
-  <si>
-    <t>т32</t>
-  </si>
-  <si>
-    <t>в6</t>
-  </si>
-  <si>
-    <t>у22</t>
-  </si>
-  <si>
-    <t>д24</t>
-  </si>
-  <si>
-    <t>в65</t>
-  </si>
-  <si>
-    <t>д15</t>
-  </si>
-  <si>
-    <t>в80</t>
-  </si>
-  <si>
-    <t>д14</t>
-  </si>
-  <si>
-    <t>в51</t>
-  </si>
-  <si>
-    <t>в67</t>
-  </si>
-  <si>
-    <t>у7</t>
-  </si>
-  <si>
-    <t>у13</t>
-  </si>
-  <si>
-    <t>т31</t>
+    <t>м13</t>
+  </si>
+  <si>
+    <t>м56</t>
+  </si>
+  <si>
+    <t>м8</t>
+  </si>
+  <si>
+    <t>м64</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>м37</t>
+  </si>
+  <si>
+    <t>г2</t>
+  </si>
+  <si>
+    <t>г3</t>
+  </si>
+  <si>
+    <t>г15</t>
+  </si>
+  <si>
+    <t>м7</t>
+  </si>
+  <si>
+    <t>а46</t>
+  </si>
+  <si>
+    <t>м63</t>
+  </si>
+  <si>
+    <t>м11</t>
+  </si>
+  <si>
+    <t>м17</t>
+  </si>
+  <si>
+    <t>а24</t>
+  </si>
+  <si>
+    <t>м44</t>
+  </si>
+  <si>
+    <t>а35</t>
+  </si>
+  <si>
+    <t>а33</t>
+  </si>
+  <si>
+    <t>м20</t>
+  </si>
+  <si>
+    <t>м14</t>
+  </si>
+  <si>
+    <t>а18</t>
+  </si>
+  <si>
+    <t>м3</t>
+  </si>
+  <si>
+    <t>м46</t>
+  </si>
+  <si>
+    <t>а16</t>
+  </si>
+  <si>
+    <t>м36</t>
+  </si>
+  <si>
+    <t>м47</t>
+  </si>
+  <si>
+    <t>м5</t>
+  </si>
+  <si>
+    <t>а30</t>
+  </si>
+  <si>
+    <t>а9</t>
+  </si>
+  <si>
+    <t>м42</t>
+  </si>
+  <si>
+    <t>а8</t>
+  </si>
+  <si>
+    <t>м57</t>
+  </si>
+  <si>
+    <t>м10</t>
+  </si>
+  <si>
+    <t>м16</t>
+  </si>
+  <si>
+    <t>а1</t>
+  </si>
+  <si>
+    <t>а2</t>
+  </si>
+  <si>
+    <t>м81</t>
+  </si>
+  <si>
+    <t>а4</t>
+  </si>
+  <si>
+    <t>а39</t>
+  </si>
+  <si>
+    <t>м19</t>
+  </si>
+  <si>
+    <t>м15</t>
+  </si>
+  <si>
+    <t>а22</t>
+  </si>
+  <si>
+    <t>м73</t>
+  </si>
+  <si>
+    <t>м23</t>
+  </si>
+  <si>
+    <t>а31</t>
+  </si>
+  <si>
+    <t>а3</t>
+  </si>
+  <si>
+    <t>м4</t>
+  </si>
+  <si>
+    <t>а32</t>
+  </si>
+  <si>
+    <t>м61</t>
+  </si>
+  <si>
+    <t>а20</t>
+  </si>
+  <si>
+    <t>м30</t>
+  </si>
+  <si>
+    <t>м80</t>
+  </si>
+  <si>
+    <t>а51</t>
+  </si>
+  <si>
+    <t>м34</t>
+  </si>
+  <si>
+    <t>а10</t>
+  </si>
+  <si>
+    <t>а27</t>
+  </si>
+  <si>
+    <t>м53</t>
+  </si>
+  <si>
+    <t>м24</t>
+  </si>
+  <si>
+    <t>м48</t>
+  </si>
+  <si>
+    <t>а34</t>
+  </si>
+  <si>
+    <t>а19</t>
   </si>
 </sst>
 </file>
@@ -890,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,13 +837,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -929,13 +851,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -943,13 +865,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -957,13 +879,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -971,13 +893,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -985,13 +907,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -999,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1013,13 +935,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1027,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1041,559 +963,559 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1601,125 +1523,125 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1727,405 +1649,405 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
         <v>86</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C76">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C80">
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C83">
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C84">
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2133,41 +2055,41 @@
         <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2175,377 +2097,377 @@
         <v>55</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D105" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
         <v>88</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B117" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C117">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B118" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2553,1043 +2475,1043 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C119">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B120" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C121">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
         <v>89</v>
-      </c>
-      <c r="C123">
-        <v>6</v>
-      </c>
-      <c r="D123" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B124" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D124" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B126" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B127" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B128" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B129" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B130" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B131" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B134" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B135" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B137" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B139" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B140" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B141" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
+        <v>65</v>
+      </c>
+      <c r="B142" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142">
         <v>56</v>
       </c>
-      <c r="B142" t="s">
-        <v>89</v>
-      </c>
-      <c r="C142">
-        <v>2</v>
-      </c>
       <c r="D142" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B149" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B151" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B152" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B153" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D153" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B154" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B156" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B157" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B158" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B159" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B161" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B162" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B164" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B165" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B166" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B170" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B173" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B174" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B175" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B176" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C177">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D178" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B179" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C179">
         <v>3</v>
       </c>
       <c r="D179" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B181" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B185" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B186" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C187">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C188">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B189" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D189" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B190" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B191" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B192" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -3600,422 +3522,422 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B195" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B196" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B197" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D197" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B198" t="s">
+        <v>84</v>
+      </c>
+      <c r="C198">
+        <v>45</v>
+      </c>
+      <c r="D198" t="s">
         <v>92</v>
-      </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-      <c r="D198" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C199">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B200" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C200">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C201">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D201" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B202" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B203" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D203" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B204" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B205" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B206" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D207" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B208" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B209" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D209" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D210" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B211" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B212" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B213" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B215" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D215" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B216" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B217" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D217" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B218" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B219" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C220">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D220" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B221" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C221">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B222" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B223" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4023,293 +3945,335 @@
         <v>23</v>
       </c>
       <c r="B224" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B225" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B226" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B227" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B228" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B229" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B231" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D231" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B232" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D232" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B234" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B235" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B236" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B237" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B238" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B239" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B240" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B241" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B242" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B243" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>105</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" t="s">
+        <v>85</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" t="s">
+        <v>85</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>66</v>
+      </c>
+      <c r="B247" t="s">
+        <v>85</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/barcode/intermediate_result.xlsx
+++ b/barcode/intermediate_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="195">
   <si>
     <t>Артикул</t>
   </si>
@@ -28,217 +28,280 @@
     <t>место</t>
   </si>
   <si>
-    <t>Термонаклейка Миньоны горкой из 3 штук</t>
-  </si>
-  <si>
-    <t>Термонаклейка Шенячий Патруль полицеский</t>
-  </si>
-  <si>
-    <t>Термонаклейка Шенячий Патруль и Логотип</t>
-  </si>
-  <si>
-    <t>Термонаклейка Шенячий Патруль мальчик главный</t>
-  </si>
-  <si>
-    <t>Платье желтое р104</t>
-  </si>
-  <si>
-    <t>Термонаклейка Жираф с цветком во рту</t>
-  </si>
-  <si>
-    <t>Термобирки Дисней мальчики</t>
-  </si>
-  <si>
-    <t>Термобирки Транспорт</t>
-  </si>
-  <si>
-    <t>Термобирки Щенячий патруль</t>
-  </si>
-  <si>
-    <t>Термонаклейка Ежик Соник бежит из кольца</t>
-  </si>
-  <si>
-    <t>Платье желтое р92</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме девочка в куртке со стикерами</t>
-  </si>
-  <si>
-    <t>Термонаклейка Единороги набор</t>
-  </si>
-  <si>
-    <t>Термонаклейка Ежик праздник</t>
-  </si>
-  <si>
-    <t>Термонаклейка Май Литл Пони радуга</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мона Лиза, Фрида Кало свадьба</t>
-  </si>
-  <si>
-    <t>Термонаклейка Холодное сердце 3 Эльза Анна Олаф</t>
-  </si>
-  <si>
-    <t>Термонаклейка Бюст статуи Feelings скрыты глаза</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кит в море картина маслом</t>
-  </si>
-  <si>
-    <t>Термонаклейка Динозавры</t>
-  </si>
-  <si>
-    <t>Термонаклейка Минни Маус фея костюм</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сейлор Мун в куртке Sailor Moon</t>
-  </si>
-  <si>
-    <t>Термонаклейка Единорог очки сердечки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Собачки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кот картина Ван Гог</t>
-  </si>
-  <si>
-    <t>Термонаклейка Минни Маус зайчик в руках</t>
-  </si>
-  <si>
-    <t>Термонаклейка Том и Джерри в очках</t>
-  </si>
-  <si>
-    <t>Термонаклейка Единорог и балерина</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка с чупа чупсом I dont care</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме Девочка с черным капюшоном</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кот вцепился сползает вниз</t>
-  </si>
-  <si>
-    <t>Термонаклейка Леопардовое сердце поцелуй губ</t>
-  </si>
-  <si>
-    <t>Термонаклейка Марвел супергерои и надпись</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мишка пилот</t>
-  </si>
-  <si>
-    <t>Термонаклейка Черепашки Ниндзя классика</t>
-  </si>
-  <si>
-    <t>Термонаклейка картина Поцелуй Густава Климта</t>
-  </si>
-  <si>
-    <t>Футболка Единорог р128</t>
-  </si>
-  <si>
-    <t>Футболка Соник Ежик Sonic р134</t>
-  </si>
-  <si>
-    <t>Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
-  </si>
-  <si>
-    <t>Термонаклейка Минни Маус сидит сердечки</t>
-  </si>
-  <si>
-    <t>Термонаклейка мультяшный Кот картина Ван Гог</t>
-  </si>
-  <si>
-    <t>Термонаклейка Vogue Вог Эйфелева башня</t>
-  </si>
-  <si>
-    <t>Термонаклейка Миньоны горкой из 6 штук</t>
-  </si>
-  <si>
-    <t>Термонаклейка Фея</t>
-  </si>
-  <si>
-    <t>Термонаклейка Джокер поп арт Joker</t>
-  </si>
-  <si>
-    <t>Термонаклейка Минни Маус подмигивает в очках</t>
-  </si>
-  <si>
-    <t>Платье желтое р110</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мишка в кепке делает селфи</t>
-  </si>
-  <si>
-    <t>Термонаклейка Play Boy губы обложка губы марка</t>
-  </si>
-  <si>
-    <t>Термонаклейка Женщина кошка пьет молоко из стакана</t>
-  </si>
-  <si>
-    <t>Термонаклейка Зайка в цветах</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка Блондинка с котом на голове</t>
-  </si>
-  <si>
-    <t>Термонаклейка Марвел супергерои круг</t>
-  </si>
-  <si>
-    <t>Термонаклейка Африканская Девушка черный силуэт</t>
-  </si>
-  <si>
-    <t>Термонаклейка Микки Маус мультфильмы внутри</t>
-  </si>
-  <si>
-    <t>Футболка Единорог р134</t>
-  </si>
-  <si>
-    <t>Термонаклейка Майнкрафт скачет на свинье</t>
-  </si>
-  <si>
-    <t>Термонаклейка Киллиан Мёрфи Острые козырьки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Микки Маус и Минни сердечко</t>
-  </si>
-  <si>
-    <t>Термонаклейка Dior Диор Цветы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кот Шанель Chanel</t>
-  </si>
-  <si>
-    <t>Платье желтое р98</t>
-  </si>
-  <si>
-    <t>Термонаклейка Эльза холодное сердце</t>
-  </si>
-  <si>
-    <t>Термонаклейка Микки Маус подмигивает синий круг</t>
-  </si>
-  <si>
-    <t>Термонаклейка Человек Паук и Веном половинки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Поцелуй берега и реки картина маслом</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Черный Силуэт Девушки</t>
+    <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Мак фиолетовый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка Ангел с хвостами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Медведь, волк и матрёшка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Весёлый енот выглядывает</t>
+  </si>
+  <si>
+    <t>Термонаклейка Египетская кошка в золоте</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лев Краски Дизайн</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лило и Стич сидят</t>
+  </si>
+  <si>
+    <t>Термонаклейка Тигр Краски Дизайн</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый волк с красным солнцем</t>
+  </si>
+  <si>
+    <t>Термонаклейка Яркий цветок акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Берсерк Рыцарь с мечом под луной</t>
+  </si>
+  <si>
+    <t>Термонаклейка Гарри Поттер и Хагрид курят</t>
+  </si>
+  <si>
+    <t>Термонаклейка Перья Украшение Ожерелье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Тигр в витражном стиле</t>
+  </si>
+  <si>
+    <t>Термонаклейка Тигренок счастливый радужный</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Термонаклейка арбуз с сердцем и надписью</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белая Лошадь Цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка в розовом платье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кибердевушка с капюшоном</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лисёнок в свитере с узорами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лошадь в космических красках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Марвел супергерои 4 верт фона</t>
+  </si>
+  <si>
+    <t>Термонаклейка Череп в терновом венке и розах</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Соник Sonic</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный котенок в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Ирисы акварелью Синий</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Пионы надпись</t>
+  </si>
+  <si>
+    <t>Термонаклейка Аист оранжевый круг</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка в цветах и золотом круге</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро Поп арт жвачка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Самурай в маске воина</t>
+  </si>
+  <si>
+    <t>Термонаклейка Фея в ночном лесу</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Синий Акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Человек Паук Лого позади</t>
+  </si>
+  <si>
+    <t>Термонаклейка Щенячий патруль 2 Маршал Крепыш</t>
+  </si>
+  <si>
+    <t>Термонаклейка Яхта у белых домиков море</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка ebis ono by horse</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка силует туман лес птицы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кратос God of War с цитатой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Радужный мишка с улыбкой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Спанч Боб и друзья</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Желтый Мак</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Магнолия фиолетовая Garden</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
+  </si>
+  <si>
+    <t>Термонаклейка львенок с милой улыбкой</t>
+  </si>
+  <si>
+    <t>Термонаклейки Nike Найк набор</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Черепашки ниндзя turtles TMNT</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый волк с цветами и узорами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лотос розовый золотистый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Итальянская набережная</t>
+  </si>
+  <si>
+    <t>Термонаклейка Три Миньона бегут</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Симпсоны The Simpsons</t>
+  </si>
+  <si>
+    <t>Термонаклейка Матрешка с хлебом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Аниме девочка в цветах и фонарях</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лимоны и морской пейзаж</t>
+  </si>
+  <si>
+    <t>Термонаклейка Матрешка Moscow</t>
+  </si>
+  <si>
+    <t>Термонаклейка Рука жест рок металл</t>
+  </si>
+  <si>
+    <t>Термонаклейка Зевающий зайка в пижаме</t>
+  </si>
+  <si>
+    <t>Термонаклейка Крылья красочные маслом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Большая волна в Канагаве Солнце</t>
+  </si>
+  <si>
+    <t>Термонаклейка Медуза в очках и с змеями</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сова в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Улыбающийся лисенок в снегу</t>
+  </si>
+  <si>
+    <t>Термонаклейка Яркие лодки на бирюзовой море</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный кот Catzilla Годзилла ловит</t>
+  </si>
+  <si>
+    <t>Термонаклейка Вид на пляж из домика</t>
+  </si>
+  <si>
+    <t>Термонаклейка Оленёнок в шарфе</t>
+  </si>
+  <si>
+    <t>Термонаклейка Черепаха Цветы на панцире</t>
+  </si>
+  <si>
+    <t>Термонаклейка Гортензии акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кот цветы внутри</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый Кот в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце разынй окрас</t>
+  </si>
+  <si>
+    <t>Термонаклейка Леопард пятна сердечки голова</t>
+  </si>
+  <si>
+    <t>Термонаклейка Орхидея Цветы Розовые</t>
+  </si>
+  <si>
+    <t>Термонаклейка Балерина в сиреневом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кибер-девушка в стиле аниме</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный волк красный луна</t>
+  </si>
+  <si>
+    <t>Термонаклейка Прикосновение рук Сотворения Адама</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чайка силует море внутри</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лисёнок с розовыми щёчками</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Розовые Лилии</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка макияж Хэллоуин</t>
+  </si>
+  <si>
+    <t>Термонаклейка Морская Черепаха Море силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка с галактической магией</t>
+  </si>
+  <si>
+    <t>Термонаклейка Леопард пятна сердечки полностью</t>
   </si>
   <si>
     <t>Беларусь</t>
   </si>
   <si>
-    <t>Воронеж</t>
-  </si>
-  <si>
     <t>Дальний Восток</t>
   </si>
   <si>
-    <t>Казань</t>
+    <t>Казахстан</t>
   </si>
   <si>
     <t>Калининград</t>
@@ -256,9 +319,6 @@
     <t>Санкт-Петербург и СЗО</t>
   </si>
   <si>
-    <t>Саратов</t>
-  </si>
-  <si>
     <t>Сибирь</t>
   </si>
   <si>
@@ -274,187 +334,271 @@
     <t>Ярославль</t>
   </si>
   <si>
-    <t>м13</t>
-  </si>
-  <si>
-    <t>м56</t>
-  </si>
-  <si>
-    <t>м8</t>
-  </si>
-  <si>
-    <t>м64</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>м37</t>
-  </si>
-  <si>
-    <t>г2</t>
-  </si>
-  <si>
-    <t>г3</t>
-  </si>
-  <si>
-    <t>г15</t>
-  </si>
-  <si>
-    <t>м7</t>
-  </si>
-  <si>
-    <t>а46</t>
-  </si>
-  <si>
-    <t>м63</t>
-  </si>
-  <si>
-    <t>м11</t>
-  </si>
-  <si>
-    <t>м17</t>
-  </si>
-  <si>
-    <t>а24</t>
-  </si>
-  <si>
-    <t>м44</t>
-  </si>
-  <si>
-    <t>а35</t>
-  </si>
-  <si>
-    <t>а33</t>
-  </si>
-  <si>
-    <t>м20</t>
-  </si>
-  <si>
-    <t>м14</t>
-  </si>
-  <si>
-    <t>а18</t>
-  </si>
-  <si>
-    <t>м3</t>
-  </si>
-  <si>
-    <t>м46</t>
-  </si>
-  <si>
-    <t>а16</t>
-  </si>
-  <si>
-    <t>м36</t>
-  </si>
-  <si>
-    <t>м47</t>
-  </si>
-  <si>
-    <t>м5</t>
-  </si>
-  <si>
-    <t>а30</t>
-  </si>
-  <si>
-    <t>а9</t>
-  </si>
-  <si>
-    <t>м42</t>
-  </si>
-  <si>
-    <t>а8</t>
-  </si>
-  <si>
-    <t>м57</t>
-  </si>
-  <si>
-    <t>м10</t>
-  </si>
-  <si>
-    <t>м16</t>
-  </si>
-  <si>
-    <t>а1</t>
-  </si>
-  <si>
-    <t>а2</t>
-  </si>
-  <si>
-    <t>м81</t>
-  </si>
-  <si>
-    <t>а4</t>
-  </si>
-  <si>
-    <t>а39</t>
-  </si>
-  <si>
-    <t>м19</t>
-  </si>
-  <si>
-    <t>м15</t>
-  </si>
-  <si>
-    <t>а22</t>
-  </si>
-  <si>
-    <t>м73</t>
-  </si>
-  <si>
-    <t>м23</t>
-  </si>
-  <si>
-    <t>а31</t>
-  </si>
-  <si>
-    <t>а3</t>
-  </si>
-  <si>
-    <t>м4</t>
-  </si>
-  <si>
-    <t>а32</t>
-  </si>
-  <si>
-    <t>м61</t>
-  </si>
-  <si>
-    <t>а20</t>
-  </si>
-  <si>
-    <t>м30</t>
-  </si>
-  <si>
-    <t>м80</t>
-  </si>
-  <si>
-    <t>а51</t>
-  </si>
-  <si>
-    <t>м34</t>
-  </si>
-  <si>
-    <t>а10</t>
-  </si>
-  <si>
-    <t>а27</t>
-  </si>
-  <si>
-    <t>м53</t>
-  </si>
-  <si>
-    <t>м24</t>
-  </si>
-  <si>
-    <t>м48</t>
-  </si>
-  <si>
-    <t>а34</t>
-  </si>
-  <si>
-    <t>а19</t>
+    <t>е3</t>
+  </si>
+  <si>
+    <t>у14</t>
+  </si>
+  <si>
+    <t>д9</t>
+  </si>
+  <si>
+    <t>в47</t>
+  </si>
+  <si>
+    <t>д4</t>
+  </si>
+  <si>
+    <t>в59</t>
+  </si>
+  <si>
+    <t>т9</t>
+  </si>
+  <si>
+    <t>б9</t>
+  </si>
+  <si>
+    <t>т8</t>
+  </si>
+  <si>
+    <t>в66</t>
+  </si>
+  <si>
+    <t>в57</t>
+  </si>
+  <si>
+    <t>в88</t>
+  </si>
+  <si>
+    <t>в83</t>
+  </si>
+  <si>
+    <t>у15</t>
+  </si>
+  <si>
+    <t>в19</t>
+  </si>
+  <si>
+    <t>д21</t>
+  </si>
+  <si>
+    <t>е2</t>
+  </si>
+  <si>
+    <t>д13</t>
+  </si>
+  <si>
+    <t>т40</t>
+  </si>
+  <si>
+    <t>д7</t>
+  </si>
+  <si>
+    <t>в86</t>
+  </si>
+  <si>
+    <t>д15</t>
+  </si>
+  <si>
+    <t>в11</t>
+  </si>
+  <si>
+    <t>б4</t>
+  </si>
+  <si>
+    <t>в81</t>
+  </si>
+  <si>
+    <t>е4</t>
+  </si>
+  <si>
+    <t>д3</t>
+  </si>
+  <si>
+    <t>у4</t>
+  </si>
+  <si>
+    <t>у1</t>
+  </si>
+  <si>
+    <t>у5</t>
+  </si>
+  <si>
+    <t>д16</t>
+  </si>
+  <si>
+    <t>в9</t>
+  </si>
+  <si>
+    <t>у13</t>
+  </si>
+  <si>
+    <t>в80</t>
+  </si>
+  <si>
+    <t>д5</t>
+  </si>
+  <si>
+    <t>т23</t>
+  </si>
+  <si>
+    <t>б5</t>
+  </si>
+  <si>
+    <t>б37</t>
+  </si>
+  <si>
+    <t>в38</t>
+  </si>
+  <si>
+    <t>в33</t>
+  </si>
+  <si>
+    <t>у2</t>
+  </si>
+  <si>
+    <t>в67</t>
+  </si>
+  <si>
+    <t>д17</t>
+  </si>
+  <si>
+    <t>б11</t>
+  </si>
+  <si>
+    <t>у10</t>
+  </si>
+  <si>
+    <t>у23</t>
+  </si>
+  <si>
+    <t>у3</t>
+  </si>
+  <si>
+    <t>д11</t>
+  </si>
+  <si>
+    <t>у22</t>
+  </si>
+  <si>
+    <t>е1</t>
+  </si>
+  <si>
+    <t>в3</t>
+  </si>
+  <si>
+    <t>в24</t>
+  </si>
+  <si>
+    <t>т19</t>
+  </si>
+  <si>
+    <t>в61</t>
+  </si>
+  <si>
+    <t>б34</t>
+  </si>
+  <si>
+    <t>е5</t>
+  </si>
+  <si>
+    <t>т61</t>
+  </si>
+  <si>
+    <t>в1</t>
+  </si>
+  <si>
+    <t>в48</t>
+  </si>
+  <si>
+    <t>т7</t>
+  </si>
+  <si>
+    <t>в53</t>
+  </si>
+  <si>
+    <t>д24</t>
+  </si>
+  <si>
+    <t>у34</t>
+  </si>
+  <si>
+    <t>т11</t>
+  </si>
+  <si>
+    <t>в51</t>
+  </si>
+  <si>
+    <t>в16</t>
+  </si>
+  <si>
+    <t>д19</t>
+  </si>
+  <si>
+    <t>в39</t>
+  </si>
+  <si>
+    <t>в71</t>
+  </si>
+  <si>
+    <t>в27</t>
+  </si>
+  <si>
+    <t>д23</t>
+  </si>
+  <si>
+    <t>т37</t>
+  </si>
+  <si>
+    <t>в44</t>
+  </si>
+  <si>
+    <t>т26</t>
+  </si>
+  <si>
+    <t>т39</t>
+  </si>
+  <si>
+    <t>т14</t>
+  </si>
+  <si>
+    <t>у33</t>
+  </si>
+  <si>
+    <t>т41</t>
+  </si>
+  <si>
+    <t>д2</t>
+  </si>
+  <si>
+    <t>в65</t>
+  </si>
+  <si>
+    <t>в25</t>
+  </si>
+  <si>
+    <t>в43</t>
+  </si>
+  <si>
+    <t>у31</t>
+  </si>
+  <si>
+    <t>д14</t>
+  </si>
+  <si>
+    <t>т56</t>
+  </si>
+  <si>
+    <t>у7</t>
+  </si>
+  <si>
+    <t>у41</t>
+  </si>
+  <si>
+    <t>в8</t>
+  </si>
+  <si>
+    <t>т17</t>
   </si>
 </sst>
 </file>
@@ -812,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D247"/>
+  <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,153 +981,153 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -991,13 +1135,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1005,13 +1149,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1019,13 +1163,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1033,13 +1177,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1047,13 +1191,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1061,13 +1205,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1075,13 +1219,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1089,13 +1233,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1103,13 +1247,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1117,13 +1261,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1131,209 +1275,209 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1341,570 +1485,570 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C57">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C58">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C59">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C60">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C63">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C67">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C68">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
         <v>107</v>
@@ -1912,282 +2056,282 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2195,307 +2339,307 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101">
         <v>6</v>
       </c>
-      <c r="B101" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
       <c r="D101" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C105">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106">
         <v>5</v>
       </c>
-      <c r="B106" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106">
-        <v>18</v>
-      </c>
       <c r="D106" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C107">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C109">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2503,1301 +2647,1301 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B129" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B131" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C133">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B134" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B139" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B140" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B141" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C142">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D142" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D143" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B145" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B146" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B148" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B149" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B151" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B153" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B154" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B155" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B157" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B158" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D159" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B160" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B161" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B162" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B163" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B164" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B165" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B166" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B167" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C168">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" t="s">
+        <v>100</v>
+      </c>
+      <c r="C169">
         <v>6</v>
       </c>
-      <c r="B169" t="s">
-        <v>82</v>
-      </c>
-      <c r="C169">
-        <v>10</v>
-      </c>
       <c r="D169" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B170" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C170">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D170" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B171" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B172" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C172">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C173">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B174" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C174">
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C175">
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B176" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C176">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B177" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B178" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B179" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B180" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B181" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B185" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C185">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B186" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B187" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B188" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B189" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B190" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C190">
         <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B192" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B193" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C193">
         <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B194" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B195" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B196" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B197" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C197">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C198">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D198" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C199">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D199" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C200">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B201" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C201">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D201" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B202" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C202">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D202" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B203" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C203">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B204" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C204">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B205" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D205" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B206" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C206">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B207" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C207">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D207" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C208">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B209" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C209">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B210" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B211" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D211" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3805,475 +3949,1203 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B215" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B217" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C217">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B219" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C219">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B220" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D221" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B222" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D222" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B223" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D223" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B224" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B225" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B226" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D226" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B227" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B228" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C228">
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B229" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C229">
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B230" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C230">
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B231" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C231">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C232">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B233" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C233">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B234" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D234" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B235" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D235" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B236" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D237" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B238" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B241" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B242" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D242" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B243" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B244" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B245" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B246" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B247" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>73</v>
+      </c>
+      <c r="B248" t="s">
+        <v>103</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" t="s">
+        <v>103</v>
+      </c>
+      <c r="C249">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>35</v>
+      </c>
+      <c r="B250" t="s">
+        <v>103</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>91</v>
+      </c>
+      <c r="B251" t="s">
+        <v>103</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252" t="s">
+        <v>103</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>45</v>
+      </c>
+      <c r="B253" t="s">
+        <v>103</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" t="s">
+        <v>103</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>92</v>
+      </c>
+      <c r="B255" t="s">
+        <v>103</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>25</v>
+      </c>
+      <c r="B256" t="s">
+        <v>103</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>27</v>
+      </c>
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" t="s">
+        <v>103</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>68</v>
+      </c>
+      <c r="B259" t="s">
+        <v>103</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>46</v>
+      </c>
+      <c r="B260" t="s">
+        <v>103</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>37</v>
+      </c>
+      <c r="B261" t="s">
+        <v>103</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>40</v>
+      </c>
+      <c r="B262" t="s">
+        <v>103</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>54</v>
+      </c>
+      <c r="B263" t="s">
+        <v>103</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>72</v>
+      </c>
+      <c r="B264" t="s">
+        <v>103</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" t="s">
+        <v>104</v>
+      </c>
+      <c r="C265">
+        <v>37</v>
+      </c>
+      <c r="D265" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" t="s">
+        <v>104</v>
+      </c>
+      <c r="C266">
+        <v>14</v>
+      </c>
+      <c r="D266" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" t="s">
+        <v>104</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+      <c r="D267" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>54</v>
+      </c>
+      <c r="B268" t="s">
+        <v>104</v>
+      </c>
+      <c r="C268">
+        <v>9</v>
+      </c>
+      <c r="D268" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" t="s">
+        <v>104</v>
+      </c>
+      <c r="C269">
+        <v>7</v>
+      </c>
+      <c r="D269" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>62</v>
+      </c>
+      <c r="B270" t="s">
+        <v>104</v>
+      </c>
+      <c r="C270">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>42</v>
+      </c>
+      <c r="B271" t="s">
+        <v>104</v>
+      </c>
+      <c r="C271">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" t="s">
+        <v>104</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+      <c r="D272" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>14</v>
+      </c>
+      <c r="B273" t="s">
+        <v>104</v>
+      </c>
+      <c r="C273">
+        <v>5</v>
+      </c>
+      <c r="D273" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" t="s">
+        <v>104</v>
+      </c>
+      <c r="C274">
+        <v>4</v>
+      </c>
+      <c r="D274" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" t="s">
+        <v>104</v>
+      </c>
+      <c r="C275">
+        <v>4</v>
+      </c>
+      <c r="D275" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>89</v>
+      </c>
+      <c r="B276" t="s">
+        <v>104</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+      <c r="D276" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>56</v>
+      </c>
+      <c r="B277" t="s">
+        <v>104</v>
+      </c>
+      <c r="C277">
+        <v>4</v>
+      </c>
+      <c r="D277" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" t="s">
+        <v>104</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+      <c r="D278" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>20</v>
+      </c>
+      <c r="B279" t="s">
+        <v>104</v>
+      </c>
+      <c r="C279">
+        <v>4</v>
+      </c>
+      <c r="D279" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>68</v>
+      </c>
+      <c r="B280" t="s">
+        <v>104</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>67</v>
+      </c>
+      <c r="B281" t="s">
+        <v>104</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>43</v>
+      </c>
+      <c r="B282" t="s">
+        <v>104</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>77</v>
+      </c>
+      <c r="B283" t="s">
+        <v>104</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>80</v>
+      </c>
+      <c r="B284" t="s">
+        <v>104</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>41</v>
+      </c>
+      <c r="B285" t="s">
+        <v>104</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>32</v>
+      </c>
+      <c r="B286" t="s">
+        <v>105</v>
+      </c>
+      <c r="C286">
+        <v>19</v>
+      </c>
+      <c r="D286" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>14</v>
+      </c>
+      <c r="B287" t="s">
+        <v>105</v>
+      </c>
+      <c r="C287">
+        <v>7</v>
+      </c>
+      <c r="D287" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>52</v>
+      </c>
+      <c r="B288" t="s">
+        <v>105</v>
+      </c>
+      <c r="C288">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" t="s">
+        <v>105</v>
+      </c>
+      <c r="C289">
+        <v>4</v>
+      </c>
+      <c r="D289" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>6</v>
+      </c>
+      <c r="B290" t="s">
+        <v>105</v>
+      </c>
+      <c r="C290">
+        <v>4</v>
+      </c>
+      <c r="D290" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>81</v>
+      </c>
+      <c r="B291" t="s">
+        <v>105</v>
+      </c>
+      <c r="C291">
+        <v>4</v>
+      </c>
+      <c r="D291" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>48</v>
+      </c>
+      <c r="B292" t="s">
+        <v>105</v>
+      </c>
+      <c r="C292">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>23</v>
+      </c>
+      <c r="B293" t="s">
+        <v>105</v>
+      </c>
+      <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="D293" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294" t="s">
+        <v>105</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+      <c r="D294" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>78</v>
+      </c>
+      <c r="B295" t="s">
+        <v>105</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>76</v>
+      </c>
+      <c r="B296" t="s">
+        <v>105</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>62</v>
+      </c>
+      <c r="B297" t="s">
+        <v>105</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="D297" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>58</v>
+      </c>
+      <c r="B298" t="s">
+        <v>105</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+      <c r="D298" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>42</v>
+      </c>
+      <c r="B299" t="s">
+        <v>105</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/barcode/intermediate_result.xlsx
+++ b/barcode/intermediate_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="264">
   <si>
     <t>Артикул</t>
   </si>
@@ -28,130 +28,361 @@
     <t>место</t>
   </si>
   <si>
-    <t>Термонаклейка Шенячий Патруль и Логотип</t>
-  </si>
-  <si>
-    <t>Термонаклейка Шенячий Патруль полицеский</t>
-  </si>
-  <si>
-    <t>Термонаклейка Принцессы дисней</t>
-  </si>
-  <si>
-    <t>Термонаклейка Черепашки Ниндзя классика</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме Девочка с черным капюшоном</t>
-  </si>
-  <si>
-    <t>Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
-  </si>
-  <si>
-    <t>Термонаклейка Леопард розовый крупный план</t>
-  </si>
-  <si>
-    <t>Термонаклейка мультяшный Кот картина Ван Гог</t>
-  </si>
-  <si>
-    <t>Термонаклейка Ежик Соник бежит из кольца</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мона Лиза, Фрида Кало свадьба</t>
-  </si>
-  <si>
-    <t>Термонаклейка Человек Паук и Веном половинки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Ежик праздник</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме девочка в куртке со стикерами</t>
-  </si>
-  <si>
-    <t>Термонаклейка Динозавры</t>
-  </si>
-  <si>
-    <t>Термонаклейка Майнкрафт скачет на свинье</t>
-  </si>
-  <si>
-    <t>Термонаклейка Марвел супергерои и надпись</t>
-  </si>
-  <si>
-    <t>Термонаклейка Минни Маус фея костюм</t>
-  </si>
-  <si>
-    <t>Термонаклейка Миньоны горкой из 3 штук</t>
-  </si>
-  <si>
-    <t>Термонаклейка Халк зеленый круг фон</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кот картина Ван Гог</t>
-  </si>
-  <si>
-    <t>Термонаклейка Зайчик держит две морковки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Единорог очки сердечки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Ежик Соник Тейлз Наклз Мания</t>
-  </si>
-  <si>
-    <t>Термонаклейка Женщина кошка пьет молоко из стакана</t>
-  </si>
-  <si>
-    <t>Термонаклейка Тигр розовый крупный план</t>
-  </si>
-  <si>
-    <t>Термонаклейка Цветы Черный Силуэт Девушки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Барт Прыгает на скейте Симпсоны</t>
-  </si>
-  <si>
-    <t>Термонаклейка Девушка с чупа чупсом I dont care</t>
-  </si>
-  <si>
-    <t>Термонаклейка Губы с чупа чупсом</t>
-  </si>
-  <si>
-    <t>Термонаклейка Микки Маус и Минни сердечко</t>
-  </si>
-  <si>
-    <t>Термонаклейка Шенячий Патруль мальчик главный</t>
-  </si>
-  <si>
-    <t>Термонаклейка Русалочка дисней</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сейлор Мун в куртке Sailor Moon</t>
-  </si>
-  <si>
-    <t>Термонаклейка Аниме Девочка в розовый капюшоном</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кот Шанель Chanel</t>
-  </si>
-  <si>
-    <t>Термонаклейка Леопардовая блондинка девушка mood</t>
-  </si>
-  <si>
-    <t>Термонаклейка Крокодил футбол</t>
-  </si>
-  <si>
-    <t>Термонаклейка Холодное сердце 3 Эльза Анна Олаф</t>
-  </si>
-  <si>
-    <t>Термонаклейка Джокер поп арт Joker</t>
-  </si>
-  <si>
-    <t>Термонаклейка Микки Маус надпись Дисней</t>
-  </si>
-  <si>
-    <t>Термонаклейка Минни Маус подмигивает в очках</t>
-  </si>
-  <si>
-    <t>Термонаклейка картина Поцелуй Густава Климта</t>
+    <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Мак фиолетовый</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Черепашки ниндзя turtles TMNT</t>
+  </si>
+  <si>
+    <t>Термонаклейка Весёлый енот выглядывает</t>
+  </si>
+  <si>
+    <t>Термонаклейка Воздушный шар из пионов</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кибер-девушка в стиле аниме</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кибердевушка с капюшоном</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный котенок в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Пионы надпись</t>
+  </si>
+  <si>
+    <t>Термонаклейка Человек Паук Лого позади</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белая Лошадь Цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Гарри Поттер и Хагрид курят</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка гладиолус цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце разынй окрас</t>
+  </si>
+  <si>
+    <t>Термонаклейка Берсерк Рыцарь с мечом под луной</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Медведь, волк и матрёшка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Подсолнухи Цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Ёжики в кружках с сердечками</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка и Лиса</t>
+  </si>
+  <si>
+    <t>Термонаклейка Египетская кошка в золоте</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лес Гитара Закат</t>
+  </si>
+  <si>
+    <t>Термонаклейка Радужный котенок счастливый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Рука жест рок металл</t>
+  </si>
+  <si>
+    <t>Термонаклейка Единороги голубой и розовый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Микки Маус бабочки цверы силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Щенячий патруль 2 Маршал Крепыш</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка Ангел с хвостами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лило и Стич сидят</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный волк красный луна</t>
+  </si>
+  <si>
+    <t>Термонаклейка Яркий цветок акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый волк с красным солнцем</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый волк с цветами и узорами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Большая волна в Канагаве Солнце</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Аниме Япония Красное Солнце</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка в цветах и золотом круге</t>
+  </si>
+  <si>
+    <t>Термонаклейка Единорог с ромашкой сердечки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Зайка балерина</t>
+  </si>
+  <si>
+    <t>Термонаклейка Котята на качелях</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лошадь в космических красках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Медуза в очках и с змеями</t>
+  </si>
+  <si>
+    <t>Термонаклейка Перья Украшение Ожерелье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Тигр спит среди тропических цветов</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Синий Акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Человек Паук Лого круг</t>
+  </si>
+  <si>
+    <t>Термонаклейка Человек Паук синий белый круг</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрная кошка с кругом цифра 9</t>
+  </si>
+  <si>
+    <t>Термонаклейка Шредер и Кренг из Черепашек-ниндзя</t>
+  </si>
+  <si>
+    <t>Термонаклейка Эльза Анна Холодное сердце паттерн</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Соник Sonic</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Термонаклейка Орхидея Цветы Розовые</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
+  </si>
+  <si>
+    <t>Термонаклейка Ловец снов акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Винни Пух</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Силует Акварель Лес</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка силует обнимают природа</t>
+  </si>
+  <si>
+    <t>Термонаклейка Киберпанк череп с ирокезом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лотос розовый золотистый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мишка на лыжах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Треснувшая античная скульптура</t>
+  </si>
+  <si>
+    <t>Термонаклейка Фламинго Flamingo цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Формы термозаплатка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Яркий аниме белый дракон с огнём</t>
+  </si>
+  <si>
+    <t>Термонаклейки Nike Найк набор</t>
+  </si>
+  <si>
+    <t>Термонаклейка Аниме девочка черные очки язык</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка-кошка с чёрным котом поцелуй</t>
+  </si>
+  <si>
+    <t>Термонаклейка Леопард пятна сердечки голова</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девочка в розовом платье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Марвел супергерои 4 верт фона</t>
+  </si>
+  <si>
+    <t>Термонаклейка Аниме девочка с мыльными пузырями</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка с колибри роза кольцо</t>
+  </si>
+  <si>
+    <t>Термонаклейка Зайчик ромашка в руках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит в золотом дизайне космос</t>
+  </si>
+  <si>
+    <t>Термонаклейка Матрешка цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мотылек Луна</t>
+  </si>
+  <si>
+    <t>Термонаклейка Не буди лихо пока тихо</t>
+  </si>
+  <si>
+    <t>Термонаклейка Одри Хепбёрн холст Vogue</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Пионы красные Pionies</t>
+  </si>
+  <si>
+    <t>Термонаклейка Аист оранжевый круг</t>
+  </si>
+  <si>
+    <t>Термонаклейка Карточная королева кричит</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит в Цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Минни Маус поправляет бант</t>
+  </si>
+  <si>
+    <t>Термонаклейка Подсолнух Ван Гог</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сияй, чёрт возьми - корона</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный кот Catzilla Годзилла луч</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лимоны и морской пейзаж</t>
+  </si>
+  <si>
+    <t>Термонаклейка Секс в большом городе подруги</t>
+  </si>
+  <si>
+    <t>Термонаклейка Тигренок счастливый радужный</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Венок Луна Акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Звезды Белые термозаплатка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Звезды Черные термозаплатка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Черный Кот Звезды Астрология</t>
+  </si>
+  <si>
+    <t>Термонаклейка Котенок розовый закат звезды</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро буквы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Love is Wild</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сова в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Спанч Боб и друзья</t>
+  </si>
+  <si>
+    <t>Термонаклейка Улыбающийся лисенок в снегу</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Розовые Лилии</t>
+  </si>
+  <si>
+    <t>Термонаклейка Череп в куртке Punk Not Dead</t>
+  </si>
+  <si>
+    <t>Термонаклейка Оленёнок в шарфе</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка в золотых трещинах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Минни Маус Единорог розовый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Пантера в огненной ярости красный</t>
+  </si>
+  <si>
+    <t>Термонаклейка Пара леопардов в ночной листве</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрная кошка и луна</t>
+  </si>
+  <si>
+    <t>Термонаклейка Минни Маус и бабочка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Самурай в маске воина</t>
+  </si>
+  <si>
+    <t>Термонаклейка Акира Глаз ядерный взрыв</t>
+  </si>
+  <si>
+    <t>Термонаклейка Берсерк воин в аниме стиле</t>
+  </si>
+  <si>
+    <t>Термонаклейка Яркие лодки на бирюзовой море</t>
+  </si>
+  <si>
+    <t>Термонаклейка Гортензии акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Графичное лицо в чёрно-белом</t>
+  </si>
+  <si>
+    <t>Термонаклейка Золотой лев в изысканном узоре</t>
+  </si>
+  <si>
+    <t>Термонаклейка Прикосновение рук Сотворения Адама</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый Кот в цветах</t>
   </si>
   <si>
     <t>Беларусь</t>
@@ -220,130 +451,361 @@
     <t>Ярославль</t>
   </si>
   <si>
-    <t>м8</t>
-  </si>
-  <si>
-    <t>м56</t>
-  </si>
-  <si>
-    <t>м55</t>
-  </si>
-  <si>
-    <t>м16</t>
-  </si>
-  <si>
-    <t>а9</t>
-  </si>
-  <si>
-    <t>а2</t>
-  </si>
-  <si>
-    <t>а12</t>
-  </si>
-  <si>
-    <t>а4</t>
-  </si>
-  <si>
-    <t>м7</t>
-  </si>
-  <si>
-    <t>а24</t>
-  </si>
-  <si>
-    <t>м48</t>
-  </si>
-  <si>
-    <t>м11</t>
-  </si>
-  <si>
-    <t>а46</t>
-  </si>
-  <si>
-    <t>м20</t>
-  </si>
-  <si>
-    <t>м80</t>
-  </si>
-  <si>
-    <t>м57</t>
-  </si>
-  <si>
-    <t>м14</t>
-  </si>
-  <si>
-    <t>м13</t>
-  </si>
-  <si>
-    <t>м54</t>
-  </si>
-  <si>
-    <t>а16</t>
-  </si>
-  <si>
-    <t>м62</t>
-  </si>
-  <si>
-    <t>м3</t>
-  </si>
-  <si>
-    <t>м40</t>
-  </si>
-  <si>
-    <t>а3</t>
-  </si>
-  <si>
-    <t>а26</t>
-  </si>
-  <si>
-    <t>а19</t>
-  </si>
-  <si>
-    <t>м77</t>
-  </si>
-  <si>
-    <t>а30</t>
-  </si>
-  <si>
-    <t>а36</t>
-  </si>
-  <si>
-    <t>м34</t>
-  </si>
-  <si>
-    <t>м64</t>
-  </si>
-  <si>
-    <t>м31</t>
-  </si>
-  <si>
-    <t>а18</t>
-  </si>
-  <si>
-    <t>а6</t>
-  </si>
-  <si>
-    <t>а27</t>
-  </si>
-  <si>
-    <t>а44</t>
-  </si>
-  <si>
-    <t>м51</t>
-  </si>
-  <si>
-    <t>м44</t>
-  </si>
-  <si>
-    <t>а22</t>
-  </si>
-  <si>
-    <t>м52</t>
-  </si>
-  <si>
-    <t>м73</t>
-  </si>
-  <si>
-    <t>а1</t>
+    <t>е3</t>
+  </si>
+  <si>
+    <t>у14</t>
+  </si>
+  <si>
+    <t>е1</t>
+  </si>
+  <si>
+    <t>д4</t>
+  </si>
+  <si>
+    <t>в50</t>
+  </si>
+  <si>
+    <t>в65</t>
+  </si>
+  <si>
+    <t>в86</t>
+  </si>
+  <si>
+    <t>д3</t>
+  </si>
+  <si>
+    <t>у1</t>
+  </si>
+  <si>
+    <t>б5</t>
+  </si>
+  <si>
+    <t>т40</t>
+  </si>
+  <si>
+    <t>в83</t>
+  </si>
+  <si>
+    <t>у11</t>
+  </si>
+  <si>
+    <t>т14</t>
+  </si>
+  <si>
+    <t>в88</t>
+  </si>
+  <si>
+    <t>в12</t>
+  </si>
+  <si>
+    <t>в47</t>
+  </si>
+  <si>
+    <t>т21</t>
+  </si>
+  <si>
+    <t>д22</t>
+  </si>
+  <si>
+    <t>т22</t>
+  </si>
+  <si>
+    <t>в59</t>
+  </si>
+  <si>
+    <t>у44</t>
+  </si>
+  <si>
+    <t>д18</t>
+  </si>
+  <si>
+    <t>в53</t>
+  </si>
+  <si>
+    <t>б2</t>
+  </si>
+  <si>
+    <t>у39</t>
+  </si>
+  <si>
+    <t>б37</t>
+  </si>
+  <si>
+    <t>д9</t>
+  </si>
+  <si>
+    <t>б9</t>
+  </si>
+  <si>
+    <t>в25</t>
+  </si>
+  <si>
+    <t>в57</t>
+  </si>
+  <si>
+    <t>в66</t>
+  </si>
+  <si>
+    <t>в24</t>
+  </si>
+  <si>
+    <t>т11</t>
+  </si>
+  <si>
+    <t>т44</t>
+  </si>
+  <si>
+    <t>в9</t>
+  </si>
+  <si>
+    <t>б1</t>
+  </si>
+  <si>
+    <t>б3</t>
+  </si>
+  <si>
+    <t>б6</t>
+  </si>
+  <si>
+    <t>в11</t>
+  </si>
+  <si>
+    <t>в51</t>
+  </si>
+  <si>
+    <t>у15</t>
+  </si>
+  <si>
+    <t>в20</t>
+  </si>
+  <si>
+    <t>т23</t>
+  </si>
+  <si>
+    <t>б49</t>
+  </si>
+  <si>
+    <t>б18</t>
+  </si>
+  <si>
+    <t>в29</t>
+  </si>
+  <si>
+    <t>в63</t>
+  </si>
+  <si>
+    <t>б32</t>
+  </si>
+  <si>
+    <t>е4</t>
+  </si>
+  <si>
+    <t>е2</t>
+  </si>
+  <si>
+    <t>т41</t>
+  </si>
+  <si>
+    <t>у3</t>
+  </si>
+  <si>
+    <t>в7</t>
+  </si>
+  <si>
+    <t>е6</t>
+  </si>
+  <si>
+    <t>т31</t>
+  </si>
+  <si>
+    <t>у30</t>
+  </si>
+  <si>
+    <t>в84</t>
+  </si>
+  <si>
+    <t>т19</t>
+  </si>
+  <si>
+    <t>б84</t>
+  </si>
+  <si>
+    <t>в56</t>
+  </si>
+  <si>
+    <t>т55</t>
+  </si>
+  <si>
+    <t>б80</t>
+  </si>
+  <si>
+    <t>в68</t>
+  </si>
+  <si>
+    <t>у22</t>
+  </si>
+  <si>
+    <t>у35</t>
+  </si>
+  <si>
+    <t>в4</t>
+  </si>
+  <si>
+    <t>у33</t>
+  </si>
+  <si>
+    <t>д7</t>
+  </si>
+  <si>
+    <t>б4</t>
+  </si>
+  <si>
+    <t>в2</t>
+  </si>
+  <si>
+    <t>у25</t>
+  </si>
+  <si>
+    <t>б7</t>
+  </si>
+  <si>
+    <t>в22</t>
+  </si>
+  <si>
+    <t>т4</t>
+  </si>
+  <si>
+    <t>т38</t>
+  </si>
+  <si>
+    <t>в55</t>
+  </si>
+  <si>
+    <t>у18</t>
+  </si>
+  <si>
+    <t>у16</t>
+  </si>
+  <si>
+    <t>у5</t>
+  </si>
+  <si>
+    <t>в17</t>
+  </si>
+  <si>
+    <t>т42</t>
+  </si>
+  <si>
+    <t>б42</t>
+  </si>
+  <si>
+    <t>т64</t>
+  </si>
+  <si>
+    <t>в30</t>
+  </si>
+  <si>
+    <t>в89</t>
+  </si>
+  <si>
+    <t>в48</t>
+  </si>
+  <si>
+    <t>т59</t>
+  </si>
+  <si>
+    <t>д21</t>
+  </si>
+  <si>
+    <t>у8</t>
+  </si>
+  <si>
+    <t>т24</t>
+  </si>
+  <si>
+    <t>б82</t>
+  </si>
+  <si>
+    <t>б81</t>
+  </si>
+  <si>
+    <t>т50</t>
+  </si>
+  <si>
+    <t>т47</t>
+  </si>
+  <si>
+    <t>т45</t>
+  </si>
+  <si>
+    <t>у42</t>
+  </si>
+  <si>
+    <t>в16</t>
+  </si>
+  <si>
+    <t>б11</t>
+  </si>
+  <si>
+    <t>д19</t>
+  </si>
+  <si>
+    <t>т56</t>
+  </si>
+  <si>
+    <t>в82</t>
+  </si>
+  <si>
+    <t>д23</t>
+  </si>
+  <si>
+    <t>в3</t>
+  </si>
+  <si>
+    <t>в54</t>
+  </si>
+  <si>
+    <t>б53</t>
+  </si>
+  <si>
+    <t>в85</t>
+  </si>
+  <si>
+    <t>в13</t>
+  </si>
+  <si>
+    <t>в60</t>
+  </si>
+  <si>
+    <t>б57</t>
+  </si>
+  <si>
+    <t>в80</t>
+  </si>
+  <si>
+    <t>в78</t>
+  </si>
+  <si>
+    <t>в77</t>
+  </si>
+  <si>
+    <t>в39</t>
+  </si>
+  <si>
+    <t>в44</t>
+  </si>
+  <si>
+    <t>в28</t>
+  </si>
+  <si>
+    <t>в14</t>
+  </si>
+  <si>
+    <t>в43</t>
+  </si>
+  <si>
+    <t>т39</t>
   </si>
 </sst>
 </file>
@@ -701,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:D578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,13 +1188,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -740,139 +1202,139 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -880,41 +1342,41 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -922,13 +1384,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -936,13 +1398,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -950,13 +1412,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -964,13 +1426,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -978,13 +1440,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -992,13 +1454,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1006,83 +1468,83 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1090,2337 +1552,7710 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="B68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68">
-        <v>35</v>
-      </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69">
         <v>4</v>
       </c>
-      <c r="B69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69">
-        <v>21</v>
-      </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B109" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B115" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B131" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B136" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B137" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B138" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B139" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B140" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B141" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C141">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B142" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C142">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C143">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B144" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B146" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B147" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B148" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B151" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B154" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B155" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B159" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B160" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B161" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C161">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B162" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C162">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B163" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C163">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B165" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B166" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B167" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B168" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="B169" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B171" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B172" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B173" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B174" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B175" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>2</v>
-      </c>
-      <c r="D177" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181" t="s">
+        <v>131</v>
+      </c>
+      <c r="C181">
         <v>4</v>
       </c>
-      <c r="B181" t="s">
-        <v>66</v>
-      </c>
-      <c r="C181">
-        <v>3</v>
-      </c>
       <c r="D181" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B182" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B183" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B185" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B186" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C186">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B187" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B188" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C189">
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B190" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C190">
         <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B192" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B193" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
+        <v>60</v>
+      </c>
+      <c r="B194" t="s">
+        <v>131</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>85</v>
+      </c>
+      <c r="B195" t="s">
+        <v>131</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>90</v>
+      </c>
+      <c r="B196" t="s">
+        <v>131</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>44</v>
+      </c>
+      <c r="B197" t="s">
+        <v>131</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>55</v>
+      </c>
+      <c r="B198" t="s">
+        <v>131</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>91</v>
+      </c>
+      <c r="B199" t="s">
+        <v>131</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>92</v>
+      </c>
+      <c r="B200" t="s">
+        <v>131</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>64</v>
+      </c>
+      <c r="B201" t="s">
+        <v>131</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" t="s">
+        <v>131</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" t="s">
+        <v>131</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>68</v>
+      </c>
+      <c r="B204" t="s">
+        <v>131</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>132</v>
+      </c>
+      <c r="C205">
+        <v>51</v>
+      </c>
+      <c r="D205" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" t="s">
+        <v>132</v>
+      </c>
+      <c r="C206">
         <v>41</v>
       </c>
-      <c r="B194" t="s">
+      <c r="D206" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>132</v>
+      </c>
+      <c r="C207">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" t="s">
+        <v>132</v>
+      </c>
+      <c r="C208">
+        <v>21</v>
+      </c>
+      <c r="D208" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>132</v>
+      </c>
+      <c r="C209">
+        <v>12</v>
+      </c>
+      <c r="D209" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" t="s">
+        <v>132</v>
+      </c>
+      <c r="C210">
+        <v>12</v>
+      </c>
+      <c r="D210" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>45</v>
+      </c>
+      <c r="B211" t="s">
+        <v>132</v>
+      </c>
+      <c r="C211">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" t="s">
+        <v>132</v>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+      <c r="D212" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" t="s">
+        <v>132</v>
+      </c>
+      <c r="C213">
+        <v>9</v>
+      </c>
+      <c r="D213" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>56</v>
+      </c>
+      <c r="B214" t="s">
+        <v>132</v>
+      </c>
+      <c r="C214">
+        <v>9</v>
+      </c>
+      <c r="D214" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" t="s">
+        <v>132</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>54</v>
+      </c>
+      <c r="B216" t="s">
+        <v>132</v>
+      </c>
+      <c r="C216">
+        <v>7</v>
+      </c>
+      <c r="D216" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" t="s">
+        <v>132</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>93</v>
+      </c>
+      <c r="B218" t="s">
+        <v>132</v>
+      </c>
+      <c r="C218">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>82</v>
+      </c>
+      <c r="B219" t="s">
+        <v>132</v>
+      </c>
+      <c r="C219">
+        <v>5</v>
+      </c>
+      <c r="D219" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>77</v>
+      </c>
+      <c r="B220" t="s">
+        <v>132</v>
+      </c>
+      <c r="C220">
+        <v>4</v>
+      </c>
+      <c r="D220" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>30</v>
+      </c>
+      <c r="B221" t="s">
+        <v>132</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+      <c r="D221" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>94</v>
+      </c>
+      <c r="B222" t="s">
+        <v>132</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>24</v>
+      </c>
+      <c r="B223" t="s">
+        <v>132</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>40</v>
+      </c>
+      <c r="B224" t="s">
+        <v>132</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" t="s">
+        <v>132</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+      <c r="B226" t="s">
+        <v>132</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>29</v>
+      </c>
+      <c r="B227" t="s">
+        <v>132</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>55</v>
+      </c>
+      <c r="B228" t="s">
+        <v>132</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+      <c r="D228" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>91</v>
+      </c>
+      <c r="B229" t="s">
+        <v>132</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+      <c r="D229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>38</v>
+      </c>
+      <c r="B230" t="s">
+        <v>132</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>95</v>
+      </c>
+      <c r="B231" t="s">
+        <v>132</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>96</v>
+      </c>
+      <c r="B232" t="s">
+        <v>132</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>43</v>
+      </c>
+      <c r="B233" t="s">
+        <v>132</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>81</v>
+      </c>
+      <c r="B234" t="s">
+        <v>132</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>97</v>
+      </c>
+      <c r="B235" t="s">
+        <v>132</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>50</v>
+      </c>
+      <c r="B236" t="s">
+        <v>132</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>89</v>
+      </c>
+      <c r="B237" t="s">
+        <v>132</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
         <v>67</v>
       </c>
-      <c r="C194">
-        <v>2</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="B238" t="s">
+        <v>132</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" t="s">
+        <v>132</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>83</v>
+      </c>
+      <c r="B240" t="s">
+        <v>132</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>74</v>
+      </c>
+      <c r="B241" t="s">
+        <v>132</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>75</v>
+      </c>
+      <c r="B242" t="s">
+        <v>132</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>41</v>
+      </c>
+      <c r="B243" t="s">
+        <v>132</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>98</v>
+      </c>
+      <c r="B244" t="s">
+        <v>132</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>71</v>
+      </c>
+      <c r="B245" t="s">
+        <v>132</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>99</v>
+      </c>
+      <c r="B246" t="s">
+        <v>132</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>80</v>
+      </c>
+      <c r="B247" t="s">
+        <v>132</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>87</v>
+      </c>
+      <c r="B248" t="s">
+        <v>132</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>26</v>
+      </c>
+      <c r="B249" t="s">
+        <v>132</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>100</v>
+      </c>
+      <c r="B250" t="s">
+        <v>132</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>101</v>
+      </c>
+      <c r="B251" t="s">
+        <v>132</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>102</v>
+      </c>
+      <c r="B252" t="s">
+        <v>132</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>46</v>
+      </c>
+      <c r="B253" t="s">
+        <v>132</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>103</v>
+      </c>
+      <c r="B254" t="s">
+        <v>132</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>104</v>
+      </c>
+      <c r="B255" t="s">
+        <v>132</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
         <v>105</v>
+      </c>
+      <c r="B256" t="s">
+        <v>132</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>51</v>
+      </c>
+      <c r="B257" t="s">
+        <v>132</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>52</v>
+      </c>
+      <c r="B258" t="s">
+        <v>132</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>58</v>
+      </c>
+      <c r="B259" t="s">
+        <v>132</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
+      <c r="C260">
+        <v>14</v>
+      </c>
+      <c r="D260" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
+      <c r="C261">
+        <v>12</v>
+      </c>
+      <c r="D261" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>31</v>
+      </c>
+      <c r="B262" t="s">
+        <v>133</v>
+      </c>
+      <c r="C262">
+        <v>10</v>
+      </c>
+      <c r="D262" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" t="s">
+        <v>133</v>
+      </c>
+      <c r="C263">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" t="s">
+        <v>133</v>
+      </c>
+      <c r="C264">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>103</v>
+      </c>
+      <c r="B265" t="s">
+        <v>133</v>
+      </c>
+      <c r="C265">
+        <v>5</v>
+      </c>
+      <c r="D265" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>106</v>
+      </c>
+      <c r="B266" t="s">
+        <v>133</v>
+      </c>
+      <c r="C266">
+        <v>4</v>
+      </c>
+      <c r="D266" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>68</v>
+      </c>
+      <c r="B267" t="s">
+        <v>133</v>
+      </c>
+      <c r="C267">
+        <v>4</v>
+      </c>
+      <c r="D267" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268" t="s">
+        <v>133</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+      <c r="D268" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" t="s">
+        <v>133</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>44</v>
+      </c>
+      <c r="B270" t="s">
+        <v>133</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+      <c r="D270" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>56</v>
+      </c>
+      <c r="B271" t="s">
+        <v>133</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+      <c r="D271" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>69</v>
+      </c>
+      <c r="B272" t="s">
+        <v>133</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>28</v>
+      </c>
+      <c r="B273" t="s">
+        <v>133</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>85</v>
+      </c>
+      <c r="B274" t="s">
+        <v>133</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>32</v>
+      </c>
+      <c r="B275" t="s">
+        <v>133</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>100</v>
+      </c>
+      <c r="B276" t="s">
+        <v>133</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>107</v>
+      </c>
+      <c r="B277" t="s">
+        <v>133</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>52</v>
+      </c>
+      <c r="B278" t="s">
+        <v>133</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>34</v>
+      </c>
+      <c r="B279" t="s">
+        <v>133</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>53</v>
+      </c>
+      <c r="B280" t="s">
+        <v>133</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>14</v>
+      </c>
+      <c r="B281" t="s">
+        <v>133</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>35</v>
+      </c>
+      <c r="B282" t="s">
+        <v>133</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>36</v>
+      </c>
+      <c r="B283" t="s">
+        <v>133</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>18</v>
+      </c>
+      <c r="B284" t="s">
+        <v>133</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>108</v>
+      </c>
+      <c r="B285" t="s">
+        <v>133</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>39</v>
+      </c>
+      <c r="B286" t="s">
+        <v>133</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>60</v>
+      </c>
+      <c r="B287" t="s">
+        <v>133</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>24</v>
+      </c>
+      <c r="B288" t="s">
+        <v>133</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>40</v>
+      </c>
+      <c r="B289" t="s">
+        <v>133</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>41</v>
+      </c>
+      <c r="B290" t="s">
+        <v>133</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>95</v>
+      </c>
+      <c r="B291" t="s">
+        <v>133</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>96</v>
+      </c>
+      <c r="B292" t="s">
+        <v>133</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>9</v>
+      </c>
+      <c r="B293" t="s">
+        <v>133</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" t="s">
+        <v>133</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>98</v>
+      </c>
+      <c r="B295" t="s">
+        <v>133</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>57</v>
+      </c>
+      <c r="B296" t="s">
+        <v>133</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>62</v>
+      </c>
+      <c r="B297" t="s">
+        <v>133</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>20</v>
+      </c>
+      <c r="B298" t="s">
+        <v>133</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>109</v>
+      </c>
+      <c r="B299" t="s">
+        <v>133</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>110</v>
+      </c>
+      <c r="B300" t="s">
+        <v>133</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>111</v>
+      </c>
+      <c r="B301" t="s">
+        <v>133</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>21</v>
+      </c>
+      <c r="B302" t="s">
+        <v>133</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>82</v>
+      </c>
+      <c r="B303" t="s">
+        <v>133</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>104</v>
+      </c>
+      <c r="B304" t="s">
+        <v>133</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>112</v>
+      </c>
+      <c r="B305" t="s">
+        <v>133</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>50</v>
+      </c>
+      <c r="B306" t="s">
+        <v>133</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>51</v>
+      </c>
+      <c r="B307" t="s">
+        <v>133</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>5</v>
+      </c>
+      <c r="B308" t="s">
+        <v>134</v>
+      </c>
+      <c r="C308">
+        <v>2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>40</v>
+      </c>
+      <c r="B309" t="s">
+        <v>134</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>110</v>
+      </c>
+      <c r="B310" t="s">
+        <v>134</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" t="s">
+        <v>135</v>
+      </c>
+      <c r="C311">
+        <v>3</v>
+      </c>
+      <c r="D311" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" t="s">
+        <v>135</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>83</v>
+      </c>
+      <c r="B313" t="s">
+        <v>135</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>31</v>
+      </c>
+      <c r="B314" t="s">
+        <v>135</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>77</v>
+      </c>
+      <c r="B315" t="s">
+        <v>135</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>32</v>
+      </c>
+      <c r="B316" t="s">
+        <v>135</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>113</v>
+      </c>
+      <c r="B317" t="s">
+        <v>135</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>86</v>
+      </c>
+      <c r="B318" t="s">
+        <v>135</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>45</v>
+      </c>
+      <c r="B319" t="s">
+        <v>135</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>114</v>
+      </c>
+      <c r="B320" t="s">
+        <v>135</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>17</v>
+      </c>
+      <c r="B321" t="s">
+        <v>135</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>93</v>
+      </c>
+      <c r="B322" t="s">
+        <v>135</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>12</v>
+      </c>
+      <c r="B323" t="s">
+        <v>135</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>104</v>
+      </c>
+      <c r="B324" t="s">
+        <v>135</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>30</v>
+      </c>
+      <c r="B325" t="s">
+        <v>135</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" t="s">
+        <v>135</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>12</v>
+      </c>
+      <c r="B327" t="s">
+        <v>136</v>
+      </c>
+      <c r="C327">
+        <v>5</v>
+      </c>
+      <c r="D327" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>13</v>
+      </c>
+      <c r="B328" t="s">
+        <v>136</v>
+      </c>
+      <c r="C328">
+        <v>4</v>
+      </c>
+      <c r="D328" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329" t="s">
+        <v>136</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+      <c r="D329" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>18</v>
+      </c>
+      <c r="B330" t="s">
+        <v>136</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>19</v>
+      </c>
+      <c r="B331" t="s">
+        <v>136</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>44</v>
+      </c>
+      <c r="B332" t="s">
+        <v>136</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" t="s">
+        <v>136</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>107</v>
+      </c>
+      <c r="B334" t="s">
+        <v>136</v>
+      </c>
+      <c r="C334">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>6</v>
+      </c>
+      <c r="B335" t="s">
+        <v>136</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>72</v>
+      </c>
+      <c r="B336" t="s">
+        <v>136</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>73</v>
+      </c>
+      <c r="B337" t="s">
+        <v>136</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>21</v>
+      </c>
+      <c r="B338" t="s">
+        <v>136</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>56</v>
+      </c>
+      <c r="B339" t="s">
+        <v>136</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B340" t="s">
+        <v>136</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>84</v>
+      </c>
+      <c r="B341" t="s">
+        <v>137</v>
+      </c>
+      <c r="C341">
+        <v>16</v>
+      </c>
+      <c r="D341" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>5</v>
+      </c>
+      <c r="B342" t="s">
+        <v>137</v>
+      </c>
+      <c r="C342">
+        <v>13</v>
+      </c>
+      <c r="D342" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B343" t="s">
+        <v>137</v>
+      </c>
+      <c r="C343">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" t="s">
+        <v>137</v>
+      </c>
+      <c r="C344">
+        <v>8</v>
+      </c>
+      <c r="D344" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>20</v>
+      </c>
+      <c r="B345" t="s">
+        <v>137</v>
+      </c>
+      <c r="C345">
+        <v>3</v>
+      </c>
+      <c r="D345" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>36</v>
+      </c>
+      <c r="B346" t="s">
+        <v>137</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>15</v>
+      </c>
+      <c r="B347" t="s">
+        <v>137</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>86</v>
+      </c>
+      <c r="B348" t="s">
+        <v>137</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>93</v>
+      </c>
+      <c r="B349" t="s">
+        <v>137</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>115</v>
+      </c>
+      <c r="B350" t="s">
+        <v>137</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>35</v>
+      </c>
+      <c r="B351" t="s">
+        <v>137</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>18</v>
+      </c>
+      <c r="B352" t="s">
+        <v>137</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>24</v>
+      </c>
+      <c r="B353" t="s">
+        <v>137</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>113</v>
+      </c>
+      <c r="B354" t="s">
+        <v>137</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>80</v>
+      </c>
+      <c r="B355" t="s">
+        <v>137</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>97</v>
+      </c>
+      <c r="B356" t="s">
+        <v>137</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>67</v>
+      </c>
+      <c r="B357" t="s">
+        <v>137</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>12</v>
+      </c>
+      <c r="B358" t="s">
+        <v>138</v>
+      </c>
+      <c r="C358">
+        <v>9</v>
+      </c>
+      <c r="D358" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359" t="s">
+        <v>138</v>
+      </c>
+      <c r="C359">
+        <v>4</v>
+      </c>
+      <c r="D359" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>43</v>
+      </c>
+      <c r="B360" t="s">
+        <v>138</v>
+      </c>
+      <c r="C360">
+        <v>3</v>
+      </c>
+      <c r="D360" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>5</v>
+      </c>
+      <c r="B361" t="s">
+        <v>138</v>
+      </c>
+      <c r="C361">
+        <v>3</v>
+      </c>
+      <c r="D361" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>72</v>
+      </c>
+      <c r="B362" t="s">
+        <v>138</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+      <c r="D362" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>94</v>
+      </c>
+      <c r="B363" t="s">
+        <v>138</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>59</v>
+      </c>
+      <c r="B364" t="s">
+        <v>138</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>79</v>
+      </c>
+      <c r="B365" t="s">
+        <v>138</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>89</v>
+      </c>
+      <c r="B366" t="s">
+        <v>138</v>
+      </c>
+      <c r="C366">
+        <v>2</v>
+      </c>
+      <c r="D366" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>83</v>
+      </c>
+      <c r="B367" t="s">
+        <v>138</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>115</v>
+      </c>
+      <c r="B368" t="s">
+        <v>138</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>74</v>
+      </c>
+      <c r="B369" t="s">
+        <v>138</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>116</v>
+      </c>
+      <c r="B370" t="s">
+        <v>138</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>7</v>
+      </c>
+      <c r="B371" t="s">
+        <v>138</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>23</v>
+      </c>
+      <c r="B372" t="s">
+        <v>138</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>39</v>
+      </c>
+      <c r="B373" t="s">
+        <v>138</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>41</v>
+      </c>
+      <c r="B374" t="s">
+        <v>138</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>84</v>
+      </c>
+      <c r="B375" t="s">
+        <v>138</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>77</v>
+      </c>
+      <c r="B376" t="s">
+        <v>138</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>25</v>
+      </c>
+      <c r="B377" t="s">
+        <v>138</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>90</v>
+      </c>
+      <c r="B378" t="s">
+        <v>138</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>73</v>
+      </c>
+      <c r="B379" t="s">
+        <v>138</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>20</v>
+      </c>
+      <c r="B380" t="s">
+        <v>138</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>44</v>
+      </c>
+      <c r="B381" t="s">
+        <v>138</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>101</v>
+      </c>
+      <c r="B382" t="s">
+        <v>138</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>82</v>
+      </c>
+      <c r="B383" t="s">
+        <v>138</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>47</v>
+      </c>
+      <c r="B384" t="s">
+        <v>138</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>13</v>
+      </c>
+      <c r="B385" t="s">
+        <v>138</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>49</v>
+      </c>
+      <c r="B386" t="s">
+        <v>138</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>51</v>
+      </c>
+      <c r="B387" t="s">
+        <v>138</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>117</v>
+      </c>
+      <c r="B388" t="s">
+        <v>138</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>34</v>
+      </c>
+      <c r="B389" t="s">
+        <v>138</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>53</v>
+      </c>
+      <c r="B390" t="s">
+        <v>138</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>68</v>
+      </c>
+      <c r="B391" t="s">
+        <v>138</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>5</v>
+      </c>
+      <c r="B392" t="s">
+        <v>139</v>
+      </c>
+      <c r="C392">
+        <v>22</v>
+      </c>
+      <c r="D392" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" t="s">
+        <v>139</v>
+      </c>
+      <c r="C393">
+        <v>22</v>
+      </c>
+      <c r="D393" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B394" t="s">
+        <v>139</v>
+      </c>
+      <c r="C394">
+        <v>16</v>
+      </c>
+      <c r="D394" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>15</v>
+      </c>
+      <c r="B395" t="s">
+        <v>139</v>
+      </c>
+      <c r="C395">
+        <v>10</v>
+      </c>
+      <c r="D395" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396" t="s">
+        <v>139</v>
+      </c>
+      <c r="C396">
+        <v>8</v>
+      </c>
+      <c r="D396" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>13</v>
+      </c>
+      <c r="B397" t="s">
+        <v>139</v>
+      </c>
+      <c r="C397">
+        <v>6</v>
+      </c>
+      <c r="D397" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>7</v>
+      </c>
+      <c r="B398" t="s">
+        <v>139</v>
+      </c>
+      <c r="C398">
+        <v>4</v>
+      </c>
+      <c r="D398" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>16</v>
+      </c>
+      <c r="B399" t="s">
+        <v>139</v>
+      </c>
+      <c r="C399">
+        <v>3</v>
+      </c>
+      <c r="D399" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>53</v>
+      </c>
+      <c r="B400" t="s">
+        <v>139</v>
+      </c>
+      <c r="C400">
+        <v>3</v>
+      </c>
+      <c r="D400" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401" t="s">
+        <v>139</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>19</v>
+      </c>
+      <c r="B402" t="s">
+        <v>139</v>
+      </c>
+      <c r="C402">
+        <v>2</v>
+      </c>
+      <c r="D402" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>55</v>
+      </c>
+      <c r="B403" t="s">
+        <v>139</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>104</v>
+      </c>
+      <c r="B404" t="s">
+        <v>139</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>83</v>
+      </c>
+      <c r="B405" t="s">
+        <v>139</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>115</v>
+      </c>
+      <c r="B406" t="s">
+        <v>139</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>18</v>
+      </c>
+      <c r="B407" t="s">
+        <v>139</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>118</v>
+      </c>
+      <c r="B408" t="s">
+        <v>139</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>40</v>
+      </c>
+      <c r="B409" t="s">
+        <v>139</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>10</v>
+      </c>
+      <c r="B410" t="s">
+        <v>139</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>61</v>
+      </c>
+      <c r="B411" t="s">
+        <v>139</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>99</v>
+      </c>
+      <c r="B412" t="s">
+        <v>139</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>114</v>
+      </c>
+      <c r="B413" t="s">
+        <v>139</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>101</v>
+      </c>
+      <c r="B414" t="s">
+        <v>139</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>105</v>
+      </c>
+      <c r="B415" t="s">
+        <v>139</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>97</v>
+      </c>
+      <c r="B416" t="s">
+        <v>139</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>30</v>
+      </c>
+      <c r="B417" t="s">
+        <v>139</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>52</v>
+      </c>
+      <c r="B418" t="s">
+        <v>139</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>117</v>
+      </c>
+      <c r="B419" t="s">
+        <v>139</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>14</v>
+      </c>
+      <c r="B420" t="s">
+        <v>140</v>
+      </c>
+      <c r="C420">
+        <v>10</v>
+      </c>
+      <c r="D420" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>119</v>
+      </c>
+      <c r="B421" t="s">
+        <v>140</v>
+      </c>
+      <c r="C421">
+        <v>10</v>
+      </c>
+      <c r="D421" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>64</v>
+      </c>
+      <c r="B422" t="s">
+        <v>140</v>
+      </c>
+      <c r="C422">
+        <v>8</v>
+      </c>
+      <c r="D422" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>12</v>
+      </c>
+      <c r="B423" t="s">
+        <v>140</v>
+      </c>
+      <c r="C423">
+        <v>8</v>
+      </c>
+      <c r="D423" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>90</v>
+      </c>
+      <c r="B424" t="s">
+        <v>140</v>
+      </c>
+      <c r="C424">
+        <v>7</v>
+      </c>
+      <c r="D424" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425" t="s">
+        <v>140</v>
+      </c>
+      <c r="C425">
+        <v>6</v>
+      </c>
+      <c r="D425" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>111</v>
+      </c>
+      <c r="B426" t="s">
+        <v>140</v>
+      </c>
+      <c r="C426">
+        <v>5</v>
+      </c>
+      <c r="D426" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>56</v>
+      </c>
+      <c r="B427" t="s">
+        <v>140</v>
+      </c>
+      <c r="C427">
+        <v>5</v>
+      </c>
+      <c r="D427" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" t="s">
+        <v>27</v>
+      </c>
+      <c r="B428" t="s">
+        <v>140</v>
+      </c>
+      <c r="C428">
+        <v>3</v>
+      </c>
+      <c r="D428" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" t="s">
+        <v>4</v>
+      </c>
+      <c r="B429" t="s">
+        <v>140</v>
+      </c>
+      <c r="C429">
+        <v>3</v>
+      </c>
+      <c r="D429" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
+        <v>7</v>
+      </c>
+      <c r="B430" t="s">
+        <v>140</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+      <c r="D430" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" t="s">
+        <v>75</v>
+      </c>
+      <c r="B431" t="s">
+        <v>140</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" t="s">
+        <v>20</v>
+      </c>
+      <c r="B432" t="s">
+        <v>140</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" t="s">
+        <v>79</v>
+      </c>
+      <c r="B433" t="s">
+        <v>140</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" t="s">
+        <v>47</v>
+      </c>
+      <c r="B434" t="s">
+        <v>140</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" t="s">
+        <v>68</v>
+      </c>
+      <c r="B435" t="s">
+        <v>140</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" t="s">
+        <v>83</v>
+      </c>
+      <c r="B436" t="s">
+        <v>140</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" t="s">
+        <v>118</v>
+      </c>
+      <c r="B437" t="s">
+        <v>140</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" t="s">
+        <v>31</v>
+      </c>
+      <c r="B438" t="s">
+        <v>140</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" t="s">
+        <v>39</v>
+      </c>
+      <c r="B439" t="s">
+        <v>140</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" t="s">
+        <v>24</v>
+      </c>
+      <c r="B440" t="s">
+        <v>140</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" t="s">
+        <v>9</v>
+      </c>
+      <c r="B441" t="s">
+        <v>140</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" t="s">
+        <v>10</v>
+      </c>
+      <c r="B442" t="s">
+        <v>140</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" t="s">
+        <v>42</v>
+      </c>
+      <c r="B443" t="s">
+        <v>140</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" t="s">
+        <v>57</v>
+      </c>
+      <c r="B444" t="s">
+        <v>140</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" t="s">
+        <v>73</v>
+      </c>
+      <c r="B445" t="s">
+        <v>140</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" t="s">
+        <v>44</v>
+      </c>
+      <c r="B446" t="s">
+        <v>140</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" t="s">
+        <v>81</v>
+      </c>
+      <c r="B447" t="s">
+        <v>140</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" t="s">
+        <v>110</v>
+      </c>
+      <c r="B448" t="s">
+        <v>140</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" t="s">
+        <v>21</v>
+      </c>
+      <c r="B449" t="s">
+        <v>140</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" t="s">
+        <v>100</v>
+      </c>
+      <c r="B450" t="s">
+        <v>140</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" t="s">
+        <v>88</v>
+      </c>
+      <c r="B451" t="s">
+        <v>140</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" t="s">
+        <v>92</v>
+      </c>
+      <c r="B452" t="s">
+        <v>140</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" t="s">
+        <v>103</v>
+      </c>
+      <c r="B453" t="s">
+        <v>140</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" t="s">
+        <v>82</v>
+      </c>
+      <c r="B454" t="s">
+        <v>140</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" t="s">
+        <v>104</v>
+      </c>
+      <c r="B455" t="s">
+        <v>140</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" t="s">
+        <v>107</v>
+      </c>
+      <c r="B456" t="s">
+        <v>140</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" t="s">
+        <v>30</v>
+      </c>
+      <c r="B457" t="s">
+        <v>140</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" t="s">
+        <v>34</v>
+      </c>
+      <c r="B458" t="s">
+        <v>140</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" t="s">
+        <v>6</v>
+      </c>
+      <c r="B459" t="s">
+        <v>140</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" t="s">
+        <v>5</v>
+      </c>
+      <c r="B460" t="s">
+        <v>141</v>
+      </c>
+      <c r="C460">
+        <v>3</v>
+      </c>
+      <c r="D460" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" t="s">
+        <v>14</v>
+      </c>
+      <c r="B461" t="s">
+        <v>141</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+      <c r="D461" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" t="s">
+        <v>40</v>
+      </c>
+      <c r="B462" t="s">
+        <v>141</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+      <c r="D462" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" t="s">
+        <v>27</v>
+      </c>
+      <c r="B463" t="s">
+        <v>141</v>
+      </c>
+      <c r="C463">
+        <v>2</v>
+      </c>
+      <c r="D463" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" t="s">
+        <v>6</v>
+      </c>
+      <c r="B464" t="s">
+        <v>141</v>
+      </c>
+      <c r="C464">
+        <v>2</v>
+      </c>
+      <c r="D464" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" t="s">
+        <v>7</v>
+      </c>
+      <c r="B465" t="s">
+        <v>141</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" t="s">
+        <v>41</v>
+      </c>
+      <c r="B466" t="s">
+        <v>141</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" t="s">
+        <v>76</v>
+      </c>
+      <c r="B467" t="s">
+        <v>141</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" t="s">
+        <v>42</v>
+      </c>
+      <c r="B468" t="s">
+        <v>141</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" t="s">
+        <v>90</v>
+      </c>
+      <c r="B469" t="s">
+        <v>141</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" t="s">
+        <v>106</v>
+      </c>
+      <c r="B470" t="s">
+        <v>141</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" t="s">
+        <v>103</v>
+      </c>
+      <c r="B471" t="s">
+        <v>141</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B472" t="s">
+        <v>141</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" t="s">
+        <v>12</v>
+      </c>
+      <c r="B473" t="s">
+        <v>142</v>
+      </c>
+      <c r="C473">
+        <v>7</v>
+      </c>
+      <c r="D473" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" t="s">
+        <v>6</v>
+      </c>
+      <c r="B474" t="s">
+        <v>142</v>
+      </c>
+      <c r="C474">
+        <v>6</v>
+      </c>
+      <c r="D474" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" t="s">
+        <v>20</v>
+      </c>
+      <c r="B475" t="s">
+        <v>142</v>
+      </c>
+      <c r="C475">
+        <v>4</v>
+      </c>
+      <c r="D475" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476" t="s">
+        <v>142</v>
+      </c>
+      <c r="C476">
+        <v>4</v>
+      </c>
+      <c r="D476" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" t="s">
+        <v>15</v>
+      </c>
+      <c r="B477" t="s">
+        <v>142</v>
+      </c>
+      <c r="C477">
+        <v>3</v>
+      </c>
+      <c r="D477" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" t="s">
+        <v>13</v>
+      </c>
+      <c r="B478" t="s">
+        <v>142</v>
+      </c>
+      <c r="C478">
+        <v>3</v>
+      </c>
+      <c r="D478" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" t="s">
+        <v>14</v>
+      </c>
+      <c r="B479" t="s">
+        <v>142</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+      <c r="D479" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" t="s">
+        <v>36</v>
+      </c>
+      <c r="B480" t="s">
+        <v>142</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+      <c r="D480" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" t="s">
+        <v>108</v>
+      </c>
+      <c r="B481" t="s">
+        <v>142</v>
+      </c>
+      <c r="C481">
+        <v>2</v>
+      </c>
+      <c r="D481" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" t="s">
+        <v>28</v>
+      </c>
+      <c r="B482" t="s">
+        <v>142</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+      <c r="D482" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" t="s">
+        <v>120</v>
+      </c>
+      <c r="B483" t="s">
+        <v>142</v>
+      </c>
+      <c r="C483">
+        <v>2</v>
+      </c>
+      <c r="D483" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" t="s">
+        <v>57</v>
+      </c>
+      <c r="B484" t="s">
+        <v>142</v>
+      </c>
+      <c r="C484">
+        <v>2</v>
+      </c>
+      <c r="D484" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" t="s">
+        <v>44</v>
+      </c>
+      <c r="B485" t="s">
+        <v>142</v>
+      </c>
+      <c r="C485">
+        <v>2</v>
+      </c>
+      <c r="D485" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" t="s">
+        <v>121</v>
+      </c>
+      <c r="B486" t="s">
+        <v>142</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+      <c r="D486" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" t="s">
+        <v>64</v>
+      </c>
+      <c r="B487" t="s">
+        <v>142</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+      <c r="D487" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" t="s">
+        <v>48</v>
+      </c>
+      <c r="B488" t="s">
+        <v>142</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+      <c r="D488" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" t="s">
+        <v>83</v>
+      </c>
+      <c r="B489" t="s">
+        <v>142</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" t="s">
+        <v>74</v>
+      </c>
+      <c r="B490" t="s">
+        <v>142</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" t="s">
+        <v>116</v>
+      </c>
+      <c r="B491" t="s">
+        <v>142</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" t="s">
+        <v>23</v>
+      </c>
+      <c r="B492" t="s">
+        <v>142</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" t="s">
+        <v>38</v>
+      </c>
+      <c r="B493" t="s">
+        <v>142</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" t="s">
+        <v>24</v>
+      </c>
+      <c r="B494" t="s">
+        <v>142</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" t="s">
+        <v>40</v>
+      </c>
+      <c r="B495" t="s">
+        <v>142</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" t="s">
+        <v>41</v>
+      </c>
+      <c r="B496" t="s">
+        <v>142</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" t="s">
+        <v>77</v>
+      </c>
+      <c r="B497" t="s">
+        <v>142</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" t="s">
+        <v>32</v>
+      </c>
+      <c r="B498" t="s">
+        <v>142</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" t="s">
+        <v>29</v>
+      </c>
+      <c r="B499" t="s">
+        <v>142</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" t="s">
+        <v>86</v>
+      </c>
+      <c r="B500" t="s">
+        <v>142</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" t="s">
+        <v>79</v>
+      </c>
+      <c r="B501" t="s">
+        <v>142</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" t="s">
+        <v>55</v>
+      </c>
+      <c r="B502" t="s">
+        <v>142</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" t="s">
+        <v>111</v>
+      </c>
+      <c r="B503" t="s">
+        <v>142</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" t="s">
+        <v>45</v>
+      </c>
+      <c r="B504" t="s">
+        <v>142</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" t="s">
+        <v>21</v>
+      </c>
+      <c r="B505" t="s">
+        <v>142</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" t="s">
+        <v>88</v>
+      </c>
+      <c r="B506" t="s">
+        <v>142</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" t="s">
+        <v>101</v>
+      </c>
+      <c r="B507" t="s">
+        <v>142</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" t="s">
+        <v>47</v>
+      </c>
+      <c r="B508" t="s">
+        <v>142</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" t="s">
+        <v>89</v>
+      </c>
+      <c r="B509" t="s">
+        <v>142</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" t="s">
+        <v>53</v>
+      </c>
+      <c r="B510" t="s">
+        <v>142</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" t="s">
+        <v>5</v>
+      </c>
+      <c r="B511" t="s">
+        <v>143</v>
+      </c>
+      <c r="C511">
+        <v>7</v>
+      </c>
+      <c r="D511" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" t="s">
+        <v>6</v>
+      </c>
+      <c r="B512" t="s">
+        <v>143</v>
+      </c>
+      <c r="C512">
+        <v>7</v>
+      </c>
+      <c r="D512" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" t="s">
+        <v>12</v>
+      </c>
+      <c r="B513" t="s">
+        <v>143</v>
+      </c>
+      <c r="C513">
+        <v>6</v>
+      </c>
+      <c r="D513" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" t="s">
+        <v>15</v>
+      </c>
+      <c r="B514" t="s">
+        <v>143</v>
+      </c>
+      <c r="C514">
+        <v>5</v>
+      </c>
+      <c r="D514" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" t="s">
+        <v>56</v>
+      </c>
+      <c r="B515" t="s">
+        <v>143</v>
+      </c>
+      <c r="C515">
+        <v>5</v>
+      </c>
+      <c r="D515" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B516" t="s">
+        <v>143</v>
+      </c>
+      <c r="C516">
+        <v>5</v>
+      </c>
+      <c r="D516" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" t="s">
+        <v>24</v>
+      </c>
+      <c r="B517" t="s">
+        <v>143</v>
+      </c>
+      <c r="C517">
+        <v>4</v>
+      </c>
+      <c r="D517" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" t="s">
+        <v>19</v>
+      </c>
+      <c r="B518" t="s">
+        <v>143</v>
+      </c>
+      <c r="C518">
+        <v>3</v>
+      </c>
+      <c r="D518" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" t="s">
+        <v>34</v>
+      </c>
+      <c r="B519" t="s">
+        <v>143</v>
+      </c>
+      <c r="C519">
+        <v>3</v>
+      </c>
+      <c r="D519" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" t="s">
+        <v>14</v>
+      </c>
+      <c r="B520" t="s">
+        <v>143</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+      <c r="D520" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" t="s">
+        <v>7</v>
+      </c>
+      <c r="B521" t="s">
+        <v>143</v>
+      </c>
+      <c r="C521">
+        <v>2</v>
+      </c>
+      <c r="D521" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" t="s">
+        <v>8</v>
+      </c>
+      <c r="B522" t="s">
+        <v>143</v>
+      </c>
+      <c r="C522">
+        <v>2</v>
+      </c>
+      <c r="D522" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" t="s">
+        <v>40</v>
+      </c>
+      <c r="B523" t="s">
+        <v>143</v>
+      </c>
+      <c r="C523">
+        <v>2</v>
+      </c>
+      <c r="D523" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" t="s">
+        <v>41</v>
+      </c>
+      <c r="B524" t="s">
+        <v>143</v>
+      </c>
+      <c r="C524">
+        <v>2</v>
+      </c>
+      <c r="D524" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" t="s">
+        <v>32</v>
+      </c>
+      <c r="B525" t="s">
+        <v>143</v>
+      </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+      <c r="D525" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" t="s">
+        <v>121</v>
+      </c>
+      <c r="B526" t="s">
+        <v>143</v>
+      </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+      <c r="D526" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" t="s">
+        <v>13</v>
+      </c>
+      <c r="B527" t="s">
+        <v>143</v>
+      </c>
+      <c r="C527">
+        <v>2</v>
+      </c>
+      <c r="D527" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" t="s">
+        <v>54</v>
+      </c>
+      <c r="B528" t="s">
+        <v>143</v>
+      </c>
+      <c r="C528">
+        <v>2</v>
+      </c>
+      <c r="D528" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" t="s">
+        <v>83</v>
+      </c>
+      <c r="B529" t="s">
+        <v>143</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" t="s">
+        <v>115</v>
+      </c>
+      <c r="B530" t="s">
+        <v>143</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" t="s">
+        <v>74</v>
+      </c>
+      <c r="B531" t="s">
+        <v>143</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" t="s">
+        <v>72</v>
+      </c>
+      <c r="B532" t="s">
+        <v>143</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" t="s">
+        <v>94</v>
+      </c>
+      <c r="B533" t="s">
+        <v>143</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" t="s">
+        <v>76</v>
+      </c>
+      <c r="B534" t="s">
+        <v>143</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" t="s">
+        <v>95</v>
+      </c>
+      <c r="B535" t="s">
+        <v>143</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" t="s">
+        <v>77</v>
+      </c>
+      <c r="B536" t="s">
+        <v>143</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" t="s">
+        <v>43</v>
+      </c>
+      <c r="B537" t="s">
+        <v>143</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" t="s">
+        <v>29</v>
+      </c>
+      <c r="B538" t="s">
+        <v>143</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" t="s">
+        <v>86</v>
+      </c>
+      <c r="B539" t="s">
+        <v>143</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" t="s">
+        <v>45</v>
+      </c>
+      <c r="B540" t="s">
+        <v>143</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" t="s">
+        <v>26</v>
+      </c>
+      <c r="B541" t="s">
+        <v>143</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" t="s">
+        <v>114</v>
+      </c>
+      <c r="B542" t="s">
+        <v>143</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" t="s">
+        <v>100</v>
+      </c>
+      <c r="B543" t="s">
+        <v>143</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" t="s">
+        <v>17</v>
+      </c>
+      <c r="B544" t="s">
+        <v>143</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" t="s">
+        <v>102</v>
+      </c>
+      <c r="B545" t="s">
+        <v>143</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" t="s">
+        <v>48</v>
+      </c>
+      <c r="B546" t="s">
+        <v>143</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" t="s">
+        <v>50</v>
+      </c>
+      <c r="B547" t="s">
+        <v>143</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" t="s">
+        <v>11</v>
+      </c>
+      <c r="B548" t="s">
+        <v>143</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" t="s">
+        <v>12</v>
+      </c>
+      <c r="B549" t="s">
+        <v>144</v>
+      </c>
+      <c r="C549">
+        <v>13</v>
+      </c>
+      <c r="D549" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" t="s">
+        <v>4</v>
+      </c>
+      <c r="B550" t="s">
+        <v>144</v>
+      </c>
+      <c r="C550">
+        <v>7</v>
+      </c>
+      <c r="D550" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" t="s">
+        <v>5</v>
+      </c>
+      <c r="B551" t="s">
+        <v>144</v>
+      </c>
+      <c r="C551">
+        <v>5</v>
+      </c>
+      <c r="D551" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" t="s">
+        <v>15</v>
+      </c>
+      <c r="B552" t="s">
+        <v>144</v>
+      </c>
+      <c r="C552">
+        <v>3</v>
+      </c>
+      <c r="D552" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" t="s">
+        <v>31</v>
+      </c>
+      <c r="B553" t="s">
+        <v>144</v>
+      </c>
+      <c r="C553">
+        <v>3</v>
+      </c>
+      <c r="D553" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" t="s">
+        <v>14</v>
+      </c>
+      <c r="B554" t="s">
+        <v>144</v>
+      </c>
+      <c r="C554">
+        <v>2</v>
+      </c>
+      <c r="D554" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" t="s">
+        <v>35</v>
+      </c>
+      <c r="B555" t="s">
+        <v>144</v>
+      </c>
+      <c r="C555">
+        <v>2</v>
+      </c>
+      <c r="D555" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" t="s">
+        <v>36</v>
+      </c>
+      <c r="B556" t="s">
+        <v>144</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+      <c r="D556" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" t="s">
+        <v>7</v>
+      </c>
+      <c r="B557" t="s">
+        <v>144</v>
+      </c>
+      <c r="C557">
+        <v>2</v>
+      </c>
+      <c r="D557" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" t="s">
+        <v>24</v>
+      </c>
+      <c r="B558" t="s">
+        <v>144</v>
+      </c>
+      <c r="C558">
+        <v>2</v>
+      </c>
+      <c r="D558" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" t="s">
+        <v>90</v>
+      </c>
+      <c r="B559" t="s">
+        <v>144</v>
+      </c>
+      <c r="C559">
+        <v>2</v>
+      </c>
+      <c r="D559" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" t="s">
+        <v>19</v>
+      </c>
+      <c r="B560" t="s">
+        <v>144</v>
+      </c>
+      <c r="C560">
+        <v>2</v>
+      </c>
+      <c r="D560" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" t="s">
+        <v>43</v>
+      </c>
+      <c r="B561" t="s">
+        <v>144</v>
+      </c>
+      <c r="C561">
+        <v>2</v>
+      </c>
+      <c r="D561" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" t="s">
+        <v>78</v>
+      </c>
+      <c r="B562" t="s">
+        <v>144</v>
+      </c>
+      <c r="C562">
+        <v>2</v>
+      </c>
+      <c r="D562" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" t="s">
+        <v>20</v>
+      </c>
+      <c r="B563" t="s">
+        <v>144</v>
+      </c>
+      <c r="C563">
+        <v>2</v>
+      </c>
+      <c r="D563" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" t="s">
+        <v>102</v>
+      </c>
+      <c r="B564" t="s">
+        <v>144</v>
+      </c>
+      <c r="C564">
+        <v>2</v>
+      </c>
+      <c r="D564" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" t="s">
+        <v>6</v>
+      </c>
+      <c r="B565" t="s">
+        <v>144</v>
+      </c>
+      <c r="C565">
+        <v>2</v>
+      </c>
+      <c r="D565" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" t="s">
+        <v>68</v>
+      </c>
+      <c r="B566" t="s">
+        <v>144</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+      <c r="D566" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" t="s">
+        <v>122</v>
+      </c>
+      <c r="B567" t="s">
+        <v>144</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" t="s">
+        <v>8</v>
+      </c>
+      <c r="B568" t="s">
+        <v>144</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" t="s">
+        <v>94</v>
+      </c>
+      <c r="B569" t="s">
+        <v>144</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" t="s">
+        <v>25</v>
+      </c>
+      <c r="B570" t="s">
+        <v>144</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+      <c r="D570" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" t="s">
+        <v>32</v>
+      </c>
+      <c r="B571" t="s">
+        <v>144</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" t="s">
+        <v>27</v>
+      </c>
+      <c r="B572" t="s">
+        <v>144</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+      <c r="D572" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" t="s">
+        <v>100</v>
+      </c>
+      <c r="B573" t="s">
+        <v>144</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" t="s">
+        <v>101</v>
+      </c>
+      <c r="B574" t="s">
+        <v>144</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+      <c r="D574" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" t="s">
+        <v>93</v>
+      </c>
+      <c r="B575" t="s">
+        <v>144</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+      <c r="D575" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" t="s">
+        <v>13</v>
+      </c>
+      <c r="B576" t="s">
+        <v>144</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" t="s">
+        <v>30</v>
+      </c>
+      <c r="B577" t="s">
+        <v>144</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+      <c r="D577" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" t="s">
+        <v>34</v>
+      </c>
+      <c r="B578" t="s">
+        <v>144</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+      <c r="D578" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
